--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -926,7 +926,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1781,7 +1781,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2175,12 +2175,12 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2531,12 +2531,12 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2672,7 +2672,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -2175,7 +2175,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2531,7 +2531,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,96 +48,112 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -931,9 +947,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1623,7 +1639,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1776,19 +1792,19 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1830,7 +1846,9 @@
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>12.0107</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>33</v>
@@ -1868,7 +1886,9 @@
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="n">
+        <v>14.0067</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>33</v>
@@ -1885,7 +1905,9 @@
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="n">
+        <v>15.9994</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>33</v>
@@ -2185,7 +2207,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2531,20 +2553,20 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6315789473684"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="81.9473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="82.6963562753036"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -1805,7 +1805,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7692307692308"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
@@ -49,6 +49,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
@@ -56,6 +57,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
@@ -63,6 +65,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
@@ -70,6 +73,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
@@ -77,13 +81,15 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
@@ -91,6 +97,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
@@ -98,6 +105,7 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
@@ -105,6 +113,7 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
@@ -112,6 +121,7 @@
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
@@ -119,6 +129,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
@@ -126,6 +137,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
@@ -133,6 +145,7 @@
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
@@ -140,6 +153,7 @@
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
@@ -147,6 +161,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
@@ -154,6 +169,7 @@
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -165,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -396,6 +412,9 @@
   </si>
   <si>
     <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
   </si>
   <si>
     <t xml:space="preserve">ATP[c]</t>
@@ -947,27 +966,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -978,13 +997,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.05</v>
@@ -997,13 +1016,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.1</v>
@@ -1016,13 +1035,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -1035,13 +1054,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.2</v>
@@ -1054,13 +1073,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -1073,13 +1092,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.035</v>
@@ -1090,13 +1109,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0.035</v>
@@ -1107,13 +1126,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.035</v>
@@ -1124,13 +1143,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -1141,13 +1160,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -1200,10 +1219,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -1303,10 +1322,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>67</v>
@@ -1323,7 +1342,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1339,7 +1358,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1394,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1441,46 +1460,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
@@ -1521,34 +1540,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1658,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1792,7 +1811,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1802,11 +1821,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2197,19 +2216,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2326,7 +2345,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>20000</v>
+        <v>5000000</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>70</v>
@@ -2378,7 +2397,7 @@
         <v>81</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>70</v>
@@ -2430,7 +2449,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>70</v>
@@ -2438,8 +2457,21 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E17"/>
+  <autoFilter ref="A1:E18"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2482,7 +2514,7 @@
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2529,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2565,10 +2597,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="83.3400809716599"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2580,19 +2612,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -2603,14 +2635,14 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -2622,14 +2654,14 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -2641,14 +2673,14 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -2660,14 +2692,14 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -2679,14 +2711,14 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -2698,13 +2730,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -2712,13 +2744,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -2726,13 +2758,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -2740,13 +2772,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -2754,13 +2786,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,6 +50,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
@@ -58,6 +59,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
@@ -66,6 +68,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
@@ -74,6 +77,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
@@ -82,6 +86,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
@@ -90,6 +95,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
@@ -98,6 +104,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
@@ -106,6 +113,7 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
@@ -114,6 +122,7 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
@@ -122,6 +131,7 @@
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
@@ -130,6 +140,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
@@ -138,6 +149,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
@@ -146,6 +158,7 @@
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
@@ -154,6 +167,7 @@
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
@@ -162,6 +176,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
@@ -170,6 +185,7 @@
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -874,7 +890,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -961,14 +977,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="1" sqref="F8:F12 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1200,7 +1216,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1256,7 +1272,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1306,7 +1322,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="H14" activeCellId="1" sqref="F8:F12 H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1397,7 +1413,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1444,7 +1460,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1530,7 +1546,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1595,7 +1611,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1653,12 +1669,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" activeCellId="1" sqref="F8:F12 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1740,7 +1756,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1811,21 +1827,21 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1868,9 +1884,11 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.0107</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1887,10 +1905,10 @@
         <v>35</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.008</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>33</v>
@@ -1908,9 +1926,11 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>14.0067</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1927,9 +1947,11 @@
         <v>39</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>15.9994</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1946,10 +1968,10 @@
         <v>41</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>30.974</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>33</v>
@@ -1970,7 +1992,7 @@
         <v>174.949</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
@@ -2012,7 +2034,7 @@
         <v>503.149</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>33</v>
@@ -2033,7 +2055,7 @@
         <v>479.123</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>33</v>
@@ -2054,7 +2076,7 @@
         <v>519.148</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>33</v>
@@ -2075,7 +2097,7 @@
         <v>480.107</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>33</v>
@@ -2095,10 +2117,10 @@
         <v>55</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>15992.1890999</v>
+        <v>1498</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-51</v>
+        <v>-50</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>56</v>
@@ -2118,10 +2140,10 @@
         <v>58</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>15992.1890999</v>
+        <v>1818</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-51</v>
+        <v>-76</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>56</v>
@@ -2141,10 +2163,10 @@
         <v>61</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>178432.010432886</v>
+        <v>2138</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-56</v>
+        <v>-108</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>56</v>
@@ -2164,10 +2186,10 @@
         <v>63</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>178432.010432886</v>
+        <v>2458</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-58</v>
+        <v>-120</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>56</v>
@@ -2187,10 +2209,10 @@
         <v>65</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>178432.010432886</v>
+        <v>2778</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-55</v>
+        <v>-176</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>56</v>
@@ -2218,17 +2240,17 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="1" sqref="F8:F12 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2495,7 +2517,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2545,7 +2567,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="F8:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2588,19 +2610,19 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D21" activeCellId="1" sqref="F8:F12 D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="83.3400809716599"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="84.0890688259109"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_test/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="-40920" yWindow="19260" windowWidth="22820" windowHeight="12320" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -176,7 +175,7 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="143">
   <si>
     <t>Id</t>
   </si>
@@ -1033,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1107,14 +1106,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" activeCellId="1" sqref="F8:F12 B10"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="1" sqref="F8:F12 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1234,7 +1242,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -1268,7 +1276,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1330,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1373,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1410,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1488,7 +1496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1522,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1595,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1647,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1692,14 +1700,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="1" sqref="F8:F12 A3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1737,7 +1748,9 @@
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1752,6 +1765,9 @@
       </c>
       <c r="C3" t="s">
         <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1765,11 +1781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCellId="1" sqref="F8:F12 A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1828,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2223,7 +2239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2481,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2515,7 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2549,14 +2565,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" activeCellId="1" sqref="F8:F12 D21"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2682,7 +2709,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -2696,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -2710,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -2724,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2738,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,33 +13,34 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
@@ -51,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
@@ -60,6 +62,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
@@ -69,6 +72,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
@@ -78,6 +82,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
@@ -87,105 +92,117 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -197,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="143">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -394,6 +411,63 @@
     <t xml:space="preserve">C876H837N588O387P90</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPI[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_5[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -403,60 +477,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">C[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">molecules</t>
   </si>
   <si>
-    <t xml:space="preserve">H[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPI[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_5[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expression</t>
   </si>
   <si>
@@ -557,12 +580,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -722,7 +739,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -732,6 +749,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -967,6 +988,242 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I6"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -979,31 +1236,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -1014,13 +1271,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.05</v>
@@ -1033,13 +1290,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.1</v>
@@ -1052,13 +1309,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -1071,13 +1328,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.2</v>
@@ -1090,13 +1347,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -1109,13 +1366,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.035</v>
@@ -1126,13 +1383,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0.035</v>
@@ -1143,13 +1400,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.035</v>
@@ -1160,13 +1417,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -1177,13 +1434,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -1205,7 +1462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1236,10 +1493,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -1261,7 +1518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1289,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1311,7 +1568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1345,10 +1602,10 @@
         <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1402,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1430,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1449,7 +1706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1535,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1572,16 +1829,16 @@
         <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>142</v>
@@ -1665,7 +1922,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2229,6 +2486,245 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B31" activeCellId="0" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="18.6153846153846"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2236,7 +2732,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2246,13 +2742,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2262,222 +2758,222 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>68</v>
+      <c r="A2" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
+      <c r="A3" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
+      <c r="A4" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
+      <c r="A5" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
+      <c r="A6" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
+      <c r="A7" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
+      <c r="A8" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
+      <c r="A9" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>5000000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>77</v>
+      <c r="A10" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>78</v>
+      <c r="A11" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
+      <c r="A12" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
+      <c r="A13" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>81</v>
+      <c r="A14" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>82</v>
+      <c r="A15" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>83</v>
+      <c r="A16" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>84</v>
+      <c r="A17" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>85</v>
+      <c r="A18" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2495,7 +2991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2523,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2542,7 +3038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2570,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2587,240 +3083,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I6"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,16 +19,16 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
@@ -41,7 +41,7 @@
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
@@ -53,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
@@ -63,16 +64,18 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
@@ -83,6 +86,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
@@ -93,6 +97,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$18</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
@@ -103,6 +108,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
@@ -113,6 +119,7 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
@@ -123,6 +130,7 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
@@ -133,6 +141,7 @@
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
@@ -143,26 +152,29 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
@@ -173,6 +185,7 @@
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$3</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
@@ -183,6 +196,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
@@ -193,6 +207,7 @@
     <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
@@ -203,6 +218,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -214,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="143">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -255,328 +271,328 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HO7P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10H12N5O13P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9H12N3O14P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10H12N5O14P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9H11N2O15P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAUUUACCGACGAAAUUAAUACCAUCAGGGUAUUAAGAUGCUACCAACGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C476H437N188O347P50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C576H537N288O357P60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUUAAACAAUGAAGAAAAUUAGUUGUUUGUUCUGGCCCUUUACUAUAUAUGUACAUAGUACAUAUAUAAGAAAGGCUACCAUGACAUUAUAUAUAAUAGGCAUCCAGAAAUAAAAGCCAAAUUAAUCUAUAAUUAAGUAUUUAUACUUAAUUAUAGUUAUUUUAUUAACAAAAUUAGUGACAUUUGGCCAUCCAUAAUAAAUAAAAUCAAAUAAACAAAACAAAAAGCAAAAAAACUAUAAAAAGGGCAUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C676H637N388O367P70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C776H737N488O377P80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C876H837N588O387P90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPI[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription_RNA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (18) ATP + (10) CTP + (8) GTP + (14) UTP ==&gt; H + H2O + (50) PPI + RNA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription_RNA_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (20) CTP + (3) GTP + (26) UTP ==&gt; H + H2O + (76) PPI + RNA_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription_RNA_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (36) ATP + (30) CTP + (4) GTP + (38) UTP ==&gt; H + H2O + (108) PPI + RNA_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription_RNA_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (25) ATP + (40) CTP + (5) GTP + (50) UTP ==&gt; H + H2O + (120) PPI + RNA_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription_RNA_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (50) ATP + (50) CTP + (6) GTP + (70) UTP ==&gt; H + H2O + (176) PPI + RNA_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degradation_RNA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: RNA_1 ==&gt; (476) C + (437) H + (188) N + (347) O + (50) P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degradation_RNA_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: RNA_2 ==&gt; (576) C + (537) H + (288) N + (357) O + (60) P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degradation_RNA_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: RNA_3 ==&gt; (676) C + (637) H + (388) N + (367) O + (70) P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degradation_RNA_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: RNA_4 ==&gt; (776) C + (737) H + (488) N + (377) O + (80) P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degradation_RNA_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: RNA_5 ==&gt; (876) C + (837) H + (588) N + (387) O + (90) P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat </t>
+  </si>
+  <si>
     <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO7P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10H12N5O13P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9H12N3O14P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10H12N5O14P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9H11N2O15P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAUUUACCGACGAAAUUAAUACCAUCAGGGUAUUAAGAUGCUACCAACGU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C476H437N188O347P50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C576H537N288O357P60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUUAAACAAUGAAGAAAAUUAGUUGUUUGUUCUGGCCCUUUACUAUAUAUGUACAUAGUACAUAUAUAAGAAAGGCUACCAUGACAUUAUAUAUAAUAGGCAUCCAGAAAUAAAAGCCAAAUUAAUCUAUAAUUAAGUAUUUAUACUUAAUUAUAGUUAUUUUAUUAACAAAAUUAGUGACAUUUGGCCAUCCAUAAUAAAUAAAAUCAAAUAAACAAAACAAAAAGCAAAAAAACUAUAAAAAGGGCAUGAAAGUUUUGAUUAAUAAGAAUGAGUUGAACAAAAUCCUCAAAAAACUCAACAAUGUAAUCGUAUCUAACAAUAAGAUGAAACCAUACCACUCUUAUUUAUUAAUAGAGGCUACAGAAAAGGAAAUUAACUUCUAUGCUAACAACGAGUACUUUUCUGCUAAAUGUACCUUAGCCGAAAACAUUGAUGUACUUGAAGAAGGUGAAGUAAUUGUUAAAGGCAAAAUCUUUAGCGAACUCAUUAACGGAAUUAAAGAAGACAUCAUUACUAUUCAAGAGAAAGAUCAAACUCUUUUAGUCAAAACAAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C676H637N388O367P70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C776H737N488O377P80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C876H837N588O387P90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPI[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription_RNA_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (18) ATP + (10) CTP + (8) GTP + (14) UTP ==&gt; H + H2O + (50) PPI + RNA_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription_RNA_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (20) CTP + (3) GTP + (26) UTP ==&gt; H + H2O + (76) PPI + RNA_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription_RNA_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (36) ATP + (30) CTP + (4) GTP + (38) UTP ==&gt; H + H2O + (108) PPI + RNA_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription_RNA_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (25) ATP + (40) CTP + (5) GTP + (50) UTP ==&gt; H + H2O + (120) PPI + RNA_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription_RNA_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (50) ATP + (50) CTP + (6) GTP + (70) UTP ==&gt; H + H2O + (176) PPI + RNA_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degradation_RNA_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: RNA_1 ==&gt; (476) C + (437) H + (188) N + (347) O + (50) P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degradation_RNA_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: RNA_2 ==&gt; (576) C + (537) H + (288) N + (357) O + (60) P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degradation_RNA_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: RNA_3 ==&gt; (676) C + (637) H + (388) N + (367) O + (70) P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degradation_RNA_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: RNA_4 ==&gt; (776) C + (737) H + (488) N + (377) O + (80) P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degradation_RNA_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: RNA_5 ==&gt; (876) C + (837) H + (588) N + (387) O + (90) P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat </t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
@@ -1000,15 +1016,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1020,19 +1036,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -1043,14 +1059,14 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -1062,14 +1078,14 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -1081,14 +1097,14 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -1100,14 +1116,14 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -1119,14 +1135,14 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1138,13 +1154,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -1152,13 +1168,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1166,13 +1182,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -1180,13 +1196,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1194,13 +1210,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>
@@ -1236,31 +1252,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -1271,13 +1287,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.05</v>
@@ -1290,13 +1306,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.1</v>
@@ -1309,13 +1325,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -1328,13 +1344,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.2</v>
@@ -1347,13 +1363,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -1366,13 +1382,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.035</v>
@@ -1383,13 +1399,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0.035</v>
@@ -1400,13 +1416,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.035</v>
@@ -1417,13 +1433,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -1434,13 +1450,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -1467,14 +1483,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1490,23 +1506,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1523,14 +1533,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1546,17 +1556,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1602,10 +1618,10 @@
         <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1687,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1746,7 +1762,7 @@
         <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>130</v>
@@ -1829,16 +1845,16 @@
         <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>142</v>
@@ -1920,14 +1936,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1949,43 +1965,39 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
+  <autoFilter ref="A1:F2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2025,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2036,10 +2048,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.6E-017</v>
@@ -2049,10 +2061,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1E-012</v>
@@ -2101,19 +2113,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -2124,12 +2136,12 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1</v>
@@ -2138,19 +2150,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -2159,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1</v>
@@ -2180,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
@@ -2201,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -2222,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>174.949</v>
@@ -2243,19 +2255,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>18.015</v>
@@ -2264,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>503.149</v>
@@ -2285,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>479.123</v>
@@ -2306,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>519.148</v>
@@ -2327,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>480.107</v>
@@ -2348,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1498</v>
@@ -2371,21 +2383,21 @@
         <v>-50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1818</v>
@@ -2394,21 +2406,21 @@
         <v>-76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>2138</v>
@@ -2417,21 +2429,21 @@
         <v>-108</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>2458</v>
@@ -2440,21 +2452,21 @@
         <v>-120</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>2778</v>
@@ -2463,7 +2475,7 @@
         <v>-176</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2488,7 +2500,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2498,8 +2510,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="18.6153846153846"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,10 +2522,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -2524,189 +2536,189 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2742,13 +2754,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2759,221 +2771,221 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>5000000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3019,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -3066,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
     <t>Standard error</t>
   </si>
   <si>
-    <t>cell_cycle_length</t>
+    <t>cell_cycle_len</t>
   </si>
   <si>
     <t>fractionDryWeight</t>
@@ -813,9 +813,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -849,15 +849,47 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,46 +902,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,43 +918,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,23 +945,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,31 +1012,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1048,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,31 +1078,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1120,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,49 +1168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,25 +1192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1210,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,7 +1219,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,17 +1254,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,17 +1289,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1306,140 +1306,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1457,7 +1457,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1891,7 +1890,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -1905,19 +1904,19 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
@@ -1931,19 +1930,19 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
@@ -2651,7 +2650,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3160,7 +3159,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1018" width="8.78333333333333" style="1"/>
-    <col min="1019" max="1025" width="8.78333333333333" style="7"/>
+    <col min="1019" max="1025" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:7">
@@ -3236,7 +3235,7 @@
     <col min="1" max="1028" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="15.1" customHeight="1" spans="1:14">
+    <row r="1" s="4" customFormat="1" ht="15.1" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3280,7 @@
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3296,10 +3295,10 @@
       <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>4.6e-17</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>4.6e-18</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -3313,7 +3312,7 @@
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3328,7 +3327,7 @@
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1e-12</v>
       </c>
       <c r="G3" s="1">

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$C$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
@@ -70,14 +70,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$N$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -255,70 +255,91 @@
     <t>Degradation</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>H</t>
@@ -812,10 +833,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -857,24 +878,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,11 +891,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,8 +936,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,28 +954,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,9 +982,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -967,22 +995,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -991,7 +1005,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,19 +1033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,25 +1063,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,43 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,19 +1129,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,55 +1207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,11 +1227,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,7 +1246,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,32 +1262,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,6 +1283,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1289,16 +1310,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1306,135 +1327,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2016,22 +2037,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
@@ -2048,13 +2069,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2062,13 +2083,13 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2076,13 +2097,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2090,13 +2111,13 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2104,13 +2125,13 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2118,13 +2139,13 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2132,13 +2153,13 @@
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2146,13 +2167,13 @@
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2160,13 +2181,13 @@
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2174,13 +2195,13 @@
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2229,19 +2250,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -2258,202 +2279,202 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2492,13 +2513,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -2549,13 +2570,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -2606,16 +2627,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>14</v>
@@ -2645,7 +2666,7 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2673,16 +2694,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
@@ -2699,170 +2720,170 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1">
         <v>0.7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D4" s="1">
         <v>0.05</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1">
         <v>0.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D11" s="1">
         <v>0.035</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2901,10 +2922,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -2955,28 +2976,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>14</v>
@@ -3027,46 +3048,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -3220,29 +3241,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1028" width="8.78333333333333" style="1"/>
+    <col min="1" max="1031" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="15.1" customHeight="1" spans="1:14">
+    <row r="1" s="4" customFormat="1" ht="15.1" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3267,84 +3288,108 @@
         <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:10">
+    <row r="2" ht="15.1" customHeight="1" spans="1:13">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="8">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8">
         <v>4.6e-17</v>
       </c>
-      <c r="G2" s="8">
+      <c r="J2" s="8">
         <v>4.6e-18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="8">
         <v>1e-12</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N3">
+  <autoFilter ref="A1:Q3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3381,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -3410,10 +3455,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1">
         <v>1.008</v>
@@ -3422,15 +3467,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1">
         <v>174.95</v>
@@ -3439,15 +3484,15 @@
         <v>-3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1">
         <v>18.015</v>
@@ -3456,15 +3501,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>17.007</v>
@@ -3473,15 +3518,15 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1">
         <v>503.15</v>
@@ -3490,15 +3535,15 @@
         <v>-4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1">
         <v>479.13</v>
@@ -3507,15 +3552,15 @@
         <v>-4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>519.15</v>
@@ -3524,15 +3569,15 @@
         <v>-4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1">
         <v>480.11</v>
@@ -3541,100 +3586,100 @@
         <v>-4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1">
         <v>-51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1">
         <v>-50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1">
         <v>-109</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1">
         <v>-121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F14" s="1">
         <v>-177</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1">
         <v>345.21</v>
@@ -3643,15 +3688,15 @@
         <v>-2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1">
         <v>321.18</v>
@@ -3660,15 +3705,15 @@
         <v>-2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>361.21</v>
@@ -3677,15 +3722,15 @@
         <v>-2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>322.17</v>
@@ -3694,7 +3739,7 @@
         <v>-2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3736,13 +3781,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -3759,240 +3804,240 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4032,19 +4077,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -4061,291 +4106,291 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>1000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1">
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1">
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1">
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1">
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1">
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4384,10 +4429,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
@@ -4438,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="220">
   <si>
     <t>Id</t>
   </si>
@@ -600,7 +600,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>transcription_RNA_1</t>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>k_cat_deg_5 * RNA_5[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -833,10 +839,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -870,51 +876,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -936,9 +912,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,9 +956,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,6 +973,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,31 +1016,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,25 +1039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,13 +1063,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,49 +1105,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,13 +1153,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,61 +1213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,21 +1230,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1281,6 +1272,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1300,163 +1330,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2013,7 +2019,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2490,22 +2496,22 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="1"/>
+    <col min="1" max="1027" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2522,15 +2528,21 @@
         <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2576,7 +2588,7 @@
         <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -2627,13 +2639,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>96</v>
@@ -2697,10 +2709,10 @@
         <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>96</v>
@@ -2720,7 +2732,7 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>167</v>
@@ -2734,7 +2746,7 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>167</v>
@@ -2743,7 +2755,7 @@
         <v>0.7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
@@ -2751,7 +2763,7 @@
         <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1">
         <v>0.05</v>
@@ -2765,7 +2777,7 @@
         <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
@@ -2779,7 +2791,7 @@
         <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2793,7 +2805,7 @@
         <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D7" s="1">
         <v>0.2</v>
@@ -2807,7 +2819,7 @@
         <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2818,72 +2830,72 @@
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D11" s="1">
         <v>0.035</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>96</v>
@@ -2985,19 +2997,19 @@
         <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>14</v>
@@ -3048,46 +3060,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -3243,7 +3255,7 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$P$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$C$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
@@ -70,14 +70,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="227">
   <si>
     <t>Id</t>
   </si>
@@ -267,556 +267,577 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>HO7P2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>C10H12N5O13P3</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>C9H12N3O14P3</t>
+  </si>
+  <si>
+    <t>GTP</t>
+  </si>
+  <si>
+    <t>C10H12N5O14P3</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>C9H11N2O15P3</t>
+  </si>
+  <si>
+    <t>RNA_1</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAACCCCCCCCCCGGGGGGGGUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C476H537N188O347P50</t>
+  </si>
+  <si>
+    <t>rna</t>
+  </si>
+  <si>
+    <t>RNA_2</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCCCCGGGUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C444H514N127O370P49</t>
+  </si>
+  <si>
+    <t>RNA_3</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1012H1151N366O759P108</t>
+  </si>
+  <si>
+    <t>RNA_4</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1110H1271N370O866P120</t>
+  </si>
+  <si>
+    <t>RNA_5</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1640H1867N570O1253P176</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>C10H12N5O7P</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>C9H12N3O8P</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>C10H12N5O8P</t>
+  </si>
+  <si>
+    <t>UMP</t>
+  </si>
+  <si>
+    <t>C9H11N2O9P</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>H[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>PPI[c]</t>
+  </si>
+  <si>
+    <t>H2O[c]</t>
+  </si>
+  <si>
+    <t>H2O[e]</t>
+  </si>
+  <si>
+    <t>ATP[c]</t>
+  </si>
+  <si>
+    <t>CTP[c]</t>
+  </si>
+  <si>
+    <t>GTP[c]</t>
+  </si>
+  <si>
+    <t>UTP[c]</t>
+  </si>
+  <si>
+    <t>RNA_1[c]</t>
+  </si>
+  <si>
+    <t>RNA_2[c]</t>
+  </si>
+  <si>
+    <t>RNA_3[c]</t>
+  </si>
+  <si>
+    <t>RNA_4[c]</t>
+  </si>
+  <si>
+    <t>RNA_5[c]</t>
+  </si>
+  <si>
+    <t>AMP[c]</t>
+  </si>
+  <si>
+    <t>CMP[c]</t>
+  </si>
+  <si>
+    <t>GMP[c]</t>
+  </si>
+  <si>
+    <t>UMP[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-PPI[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-AMP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-CMP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-GMP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-UMP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ATP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-CTP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-GTP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-UTP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_1[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_3[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_5[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>transcription_RNA_1</t>
+  </si>
+  <si>
+    <t>[c]: (18) ATP + (10) CTP + (8) GTP + (14) UTP + H2O ==&gt; H + (050) PPI + RNA_1</t>
+  </si>
+  <si>
+    <t>transcription_RNA_2</t>
+  </si>
+  <si>
+    <t>[c]: (00) ATP + (20) CTP + (3) GTP + (26) UTP + H2O ==&gt; H + (049) PPI + RNA_2</t>
+  </si>
+  <si>
+    <t>transcription_RNA_3</t>
+  </si>
+  <si>
+    <t>[c]: (36) ATP + (30) CTP + (4) GTP + (38) UTP + H2O ==&gt; H + (108) PPI + RNA_3</t>
+  </si>
+  <si>
+    <t>transcription_RNA_4</t>
+  </si>
+  <si>
+    <t>[c]: (25) ATP + (40) CTP + (5) GTP + (50) UTP + H2O ==&gt; H + (120) PPI + RNA_4</t>
+  </si>
+  <si>
+    <t>transcription_RNA_5</t>
+  </si>
+  <si>
+    <t>[c]: (50) ATP + (50) CTP + (6) GTP + (70) UTP + H2O ==&gt; H + (176) PPI + RNA_5</t>
+  </si>
+  <si>
+    <t>degradation_RNA_1</t>
+  </si>
+  <si>
+    <t>[c]: RNA_1 + (049) H2O ==&gt; (18) AMP + (10) CMP + (8) GMP + (14) UMP + (49) H</t>
+  </si>
+  <si>
+    <t>degradation_RNA_2</t>
+  </si>
+  <si>
+    <t>[c]: RNA_2 + (048) H2O ==&gt; (00) AMP + (20) CMP + (3) GMP + (26) UMP + (48) H</t>
+  </si>
+  <si>
+    <t>degradation_RNA_3</t>
+  </si>
+  <si>
+    <t>[c]: RNA_3 + (107) H2O ==&gt; (36) AMP + (30) CMP + (4) GMP + (38) UMP + (107) H</t>
+  </si>
+  <si>
+    <t>degradation_RNA_4</t>
+  </si>
+  <si>
+    <t>[c]: RNA_4 + (119) H2O ==&gt; (25) AMP + (40) CMP + (5) GMP + (50) UMP + (119) H</t>
+  </si>
+  <si>
+    <t>degradation_RNA_5</t>
+  </si>
+  <si>
+    <t>[c]: RNA_5 + (175) H2O ==&gt; (50) AMP + (50) CMP + (6) GMP + (70) UMP + (175) H</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>transcription_RNA_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_trn_1</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>transcription_RNA_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_2</t>
+  </si>
+  <si>
+    <t>transcription_RNA_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_3</t>
+  </si>
+  <si>
+    <t>transcription_RNA_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_4</t>
+  </si>
+  <si>
+    <t>transcription_RNA_5-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_5</t>
+  </si>
+  <si>
+    <t>degradation_RNA_1-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_1 * RNA_1[c]</t>
+  </si>
+  <si>
+    <t>degradation_RNA_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_2 * RNA_2[c]</t>
+  </si>
+  <si>
+    <t>degradation_RNA_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_3 * RNA_3[c]</t>
+  </si>
+  <si>
+    <t>degradation_RNA_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_4 * RNA_4[c]</t>
+  </si>
+  <si>
+    <t>degradation_RNA_5-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_5 * RNA_5[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>cell_cycle_len</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>k_cat_deg_1</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_deg_2</t>
+  </si>
+  <si>
+    <t>k_cat_deg_3</t>
+  </si>
+  <si>
+    <t>k_cat_deg_4</t>
+  </si>
+  <si>
+    <t>k_cat_deg_5</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>PPI</t>
-  </si>
-  <si>
-    <t>HO7P2</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>C10H12N5O13P3</t>
-  </si>
-  <si>
-    <t>CTP</t>
-  </si>
-  <si>
-    <t>C9H12N3O14P3</t>
-  </si>
-  <si>
-    <t>GTP</t>
-  </si>
-  <si>
-    <t>C10H12N5O14P3</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>C9H11N2O15P3</t>
-  </si>
-  <si>
-    <t>RNA_1</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAACCCCCCCCCCGGGGGGGGUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C476H537N188O347P50</t>
-  </si>
-  <si>
-    <t>rna</t>
-  </si>
-  <si>
-    <t>RNA_2</t>
-  </si>
-  <si>
-    <t>CCCCCCCCCCCCCCCCCCCCGGGUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C444H514N127O370P49</t>
-  </si>
-  <si>
-    <t>RNA_3</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1012H1151N366O759P108</t>
-  </si>
-  <si>
-    <t>RNA_4</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1110H1271N370O866P120</t>
-  </si>
-  <si>
-    <t>RNA_5</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1640H1867N570O1253P176</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>C10H12N5O7P</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>C9H12N3O8P</t>
-  </si>
-  <si>
-    <t>GMP</t>
-  </si>
-  <si>
-    <t>C10H12N5O8P</t>
-  </si>
-  <si>
-    <t>UMP</t>
-  </si>
-  <si>
-    <t>C9H11N2O9P</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>H[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>PPI[c]</t>
-  </si>
-  <si>
-    <t>H2O[c]</t>
-  </si>
-  <si>
-    <t>H2O[e]</t>
-  </si>
-  <si>
-    <t>ATP[c]</t>
-  </si>
-  <si>
-    <t>CTP[c]</t>
-  </si>
-  <si>
-    <t>GTP[c]</t>
-  </si>
-  <si>
-    <t>UTP[c]</t>
-  </si>
-  <si>
-    <t>RNA_1[c]</t>
-  </si>
-  <si>
-    <t>RNA_2[c]</t>
-  </si>
-  <si>
-    <t>RNA_3[c]</t>
-  </si>
-  <si>
-    <t>RNA_4[c]</t>
-  </si>
-  <si>
-    <t>RNA_5[c]</t>
-  </si>
-  <si>
-    <t>AMP[c]</t>
-  </si>
-  <si>
-    <t>CMP[c]</t>
-  </si>
-  <si>
-    <t>GMP[c]</t>
-  </si>
-  <si>
-    <t>UMP[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-PPI[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-AMP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-CMP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-GMP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-UMP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-ATP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-CTP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-GTP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-UTP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_1[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_3[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_5[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>transcription_RNA_1</t>
-  </si>
-  <si>
-    <t>[c]: (18) ATP + (10) CTP + (8) GTP + (14) UTP + H2O ==&gt; H + (050) PPI + RNA_1</t>
-  </si>
-  <si>
-    <t>transcription_RNA_2</t>
-  </si>
-  <si>
-    <t>[c]: (00) ATP + (20) CTP + (3) GTP + (26) UTP + H2O ==&gt; H + (049) PPI + RNA_2</t>
-  </si>
-  <si>
-    <t>transcription_RNA_3</t>
-  </si>
-  <si>
-    <t>[c]: (36) ATP + (30) CTP + (4) GTP + (38) UTP + H2O ==&gt; H + (108) PPI + RNA_3</t>
-  </si>
-  <si>
-    <t>transcription_RNA_4</t>
-  </si>
-  <si>
-    <t>[c]: (25) ATP + (40) CTP + (5) GTP + (50) UTP + H2O ==&gt; H + (120) PPI + RNA_4</t>
-  </si>
-  <si>
-    <t>transcription_RNA_5</t>
-  </si>
-  <si>
-    <t>[c]: (50) ATP + (50) CTP + (6) GTP + (70) UTP + H2O ==&gt; H + (176) PPI + RNA_5</t>
-  </si>
-  <si>
-    <t>degradation_RNA_1</t>
-  </si>
-  <si>
-    <t>[c]: RNA_1 + (049) H2O ==&gt; (18) AMP + (10) CMP + (8) GMP + (14) UMP + (49) H</t>
-  </si>
-  <si>
-    <t>degradation_RNA_2</t>
-  </si>
-  <si>
-    <t>[c]: RNA_2 + (048) H2O ==&gt; (00) AMP + (20) CMP + (3) GMP + (26) UMP + (48) H</t>
-  </si>
-  <si>
-    <t>degradation_RNA_3</t>
-  </si>
-  <si>
-    <t>[c]: RNA_3 + (107) H2O ==&gt; (36) AMP + (30) CMP + (4) GMP + (38) UMP + (107) H</t>
-  </si>
-  <si>
-    <t>degradation_RNA_4</t>
-  </si>
-  <si>
-    <t>[c]: RNA_4 + (119) H2O ==&gt; (25) AMP + (40) CMP + (5) GMP + (50) UMP + (119) H</t>
-  </si>
-  <si>
-    <t>degradation_RNA_5</t>
-  </si>
-  <si>
-    <t>[c]: RNA_5 + (175) H2O ==&gt; (50) AMP + (50) CMP + (6) GMP + (70) UMP + (175) H</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>transcription_RNA_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_trn_1</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>transcription_RNA_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_2</t>
-  </si>
-  <si>
-    <t>transcription_RNA_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_3</t>
-  </si>
-  <si>
-    <t>transcription_RNA_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_4</t>
-  </si>
-  <si>
-    <t>transcription_RNA_5-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_5</t>
-  </si>
-  <si>
-    <t>degradation_RNA_1-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_1 * RNA_1[c]</t>
-  </si>
-  <si>
-    <t>degradation_RNA_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_2 * RNA_2[c]</t>
-  </si>
-  <si>
-    <t>degradation_RNA_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_3 * RNA_3[c]</t>
-  </si>
-  <si>
-    <t>degradation_RNA_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_4 * RNA_4[c]</t>
-  </si>
-  <si>
-    <t>degradation_RNA_5-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_5 * RNA_5[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>cell_cycle_len</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>k_cat_deg_1</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_deg_2</t>
-  </si>
-  <si>
-    <t>k_cat_deg_3</t>
-  </si>
-  <si>
-    <t>k_cat_deg_4</t>
-  </si>
-  <si>
-    <t>k_cat_deg_5</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -840,9 +861,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -876,21 +897,36 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -898,7 +934,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,33 +948,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -956,23 +985,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,30 +1017,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,7 +1032,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,19 +1060,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,13 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,25 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,61 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,7 +1150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1162,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,19 +1234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,11 +1254,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,17 +1317,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,168 +1351,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,13 +1502,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2043,22 +2064,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
@@ -2075,13 +2096,13 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2089,13 +2110,13 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2103,13 +2124,13 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2117,13 +2138,13 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2131,13 +2152,13 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2145,13 +2166,13 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2159,13 +2180,13 @@
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2173,13 +2194,13 @@
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2187,13 +2208,13 @@
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2201,13 +2222,13 @@
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2228,12 +2249,12 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2256,19 +2277,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -2285,202 +2306,202 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2519,7 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2519,19 +2540,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -2582,13 +2603,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -2632,34 +2653,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2676,14 +2697,14 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2706,16 +2727,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
@@ -2732,170 +2753,212 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1">
         <v>0.7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D4" s="1">
         <v>0.05</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1">
         <v>0.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1">
         <v>0.035</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2934,10 +2997,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -2988,28 +3051,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>14</v>
@@ -3060,46 +3123,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -3253,22 +3316,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1031" width="8.78333333333333" style="1"/>
+    <col min="1" max="1030" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="15.1" customHeight="1" spans="1:17">
+    <row r="1" s="4" customFormat="1" ht="15.1" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3306,102 +3369,93 @@
         <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="6">
+        <v>4.6e-17</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4.6e-18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="8">
-        <v>4.6e-17</v>
-      </c>
-      <c r="J2" s="8">
-        <v>4.6e-18</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:13">
-      <c r="A3" s="7" t="s">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>1e-12</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q3">
+  <autoFilter ref="A1:P3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3438,19 +3492,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -3467,10 +3521,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1">
         <v>1.008</v>
@@ -3479,15 +3533,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E3" s="1">
         <v>174.95</v>
@@ -3496,15 +3550,15 @@
         <v>-3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1">
         <v>18.015</v>
@@ -3513,15 +3567,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1">
         <v>17.007</v>
@@ -3530,15 +3584,15 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E6" s="1">
         <v>503.15</v>
@@ -3547,15 +3601,15 @@
         <v>-4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E7" s="1">
         <v>479.13</v>
@@ -3564,15 +3618,15 @@
         <v>-4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>519.15</v>
@@ -3581,15 +3635,15 @@
         <v>-4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E9" s="1">
         <v>480.11</v>
@@ -3598,100 +3652,100 @@
         <v>-4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F10" s="1">
         <v>-51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F11" s="1">
         <v>-50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F12" s="1">
         <v>-109</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F13" s="1">
         <v>-121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F14" s="1">
         <v>-177</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E15" s="1">
         <v>345.21</v>
@@ -3700,15 +3754,15 @@
         <v>-2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E16" s="1">
         <v>321.18</v>
@@ -3717,15 +3771,15 @@
         <v>-2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>361.21</v>
@@ -3734,15 +3788,15 @@
         <v>-2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>322.17</v>
@@ -3751,7 +3805,7 @@
         <v>-2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3793,13 +3847,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -3816,240 +3870,240 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4089,19 +4143,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -4118,291 +4172,291 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1">
         <v>1000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1">
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1">
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1">
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4441,10 +4495,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
@@ -4472,22 +4526,24 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4495,10 +4551,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -4511,6 +4567,28 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="10"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$C$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$C$1:$K$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -110,14 +110,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="228">
   <si>
     <t>Id</t>
   </si>
@@ -603,6 +603,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -618,6 +621,9 @@
     <t>[c]: (18) ATP + (10) CTP + (8) GTP + (14) UTP + H2O ==&gt; H + (050) PPI + RNA_1</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>transcription_RNA_2</t>
   </si>
   <si>
@@ -688,9 +694,6 @@
   </si>
   <si>
     <t>k_cat_trn_1</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>transcription_RNA_2-forward</t>
@@ -860,8 +863,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -897,19 +900,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -917,24 +920,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,21 +973,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -987,14 +982,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,17 +997,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,16 +1025,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,25 +1063,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,7 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1123,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,79 +1225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,37 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,26 +1257,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,12 +1322,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1336,154 +1354,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2033,14 +2036,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2048,15 +2051,15 @@
     <col min="1" max="1" width="19.175" style="1"/>
     <col min="2" max="2" width="8.45833333333333" style="1"/>
     <col min="3" max="3" width="12.8583333333333" style="1"/>
-    <col min="4" max="4" width="84.0083333333333" style="1"/>
-    <col min="5" max="5" width="13.3916666666667" style="1"/>
-    <col min="6" max="6" width="10.7166666666667" style="1"/>
-    <col min="7" max="7" width="10.8166666666667" style="1"/>
-    <col min="8" max="9" width="13.3916666666667" style="1"/>
-    <col min="10" max="1025" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="69.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.3916666666667" style="1"/>
+    <col min="7" max="7" width="10.7166666666667" style="1"/>
+    <col min="8" max="8" width="10.8166666666667" style="1"/>
+    <col min="9" max="10" width="13.3916666666667" style="1"/>
+    <col min="11" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+    <row r="1" ht="15.1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2082,160 +2085,193 @@
         <v>145</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:5">
+    <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="15.1" customHeight="1" spans="1:5">
+      <c r="F10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11">
+  <autoFilter ref="A1:J11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2249,7 +2285,7 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2277,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>54</v>
@@ -2306,202 +2342,202 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2549,10 +2585,10 @@
         <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -2609,7 +2645,7 @@
         <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -2660,13 +2696,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>95</v>
@@ -2730,10 +2766,10 @@
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>95</v>
@@ -2753,170 +2789,170 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D3" s="1">
         <v>0.7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1">
         <v>0.05</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1">
         <v>0.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D11" s="1">
         <v>0.035</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2924,13 +2960,13 @@
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1">
         <v>1100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2938,31 +2974,31 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D15" s="1">
         <v>1000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D16" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13">
+  <autoFilter ref="A1:F16">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3051,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>95</v>
@@ -3060,19 +3096,19 @@
         <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>14</v>
@@ -3123,46 +3159,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -4592,7 +4628,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,47 +5,48 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="12" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="15" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="16" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="17" r:id="rId17"/>
-    <sheet name="References" sheetId="18" r:id="rId18"/>
+    <sheet name="Environment" sheetId="19" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="12" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="15" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="17" r:id="rId18"/>
+    <sheet name="References" sheetId="18" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$K$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$C$1:$K$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$C$1:$K$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$C$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$C$1:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -62,117 +63,117 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="6">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="10">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -234,6 +235,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -814,9 +830,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -863,10 +876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -905,24 +918,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,22 +957,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -967,7 +981,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,10 +1010,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1010,16 +1031,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,16 +1046,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,7 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,13 +1088,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,19 +1130,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,133 +1256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,17 +1267,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1287,7 +1289,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,9 +1341,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,132 +1370,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1490,7 +1503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1513,6 +1526,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2036,9 +2052,87 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D3">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2067,31 +2161,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -2102,172 +2196,172 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K11"/>
@@ -2313,25 +2407,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>15</v>
@@ -2342,202 +2436,202 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K1"/>
@@ -2576,25 +2670,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
@@ -2613,7 +2707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -2639,19 +2733,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -2670,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -2696,22 +2790,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>15</v>
@@ -2730,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J16"/>
@@ -2763,22 +2857,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -2789,212 +2883,212 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D3" s="1">
         <v>0.7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D4" s="1">
         <v>0.05</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1">
         <v>0.2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1">
         <v>0.035</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D14" s="1">
         <v>1100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D15" s="1">
         <v>1000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D16" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3033,16 +3127,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -3061,7 +3155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -3087,34 +3181,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>15</v>
@@ -3133,7 +3227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -3159,46 +3253,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -3222,12 +3316,12 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3276,6 +3370,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="1"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="9"/>
+    <col min="1020" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G3"/>
@@ -3302,13 +3474,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -3319,24 +3491,24 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
@@ -3375,40 +3547,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>15</v>
@@ -3419,28 +3591,28 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6">
         <v>4.6e-17</v>
@@ -3449,33 +3621,33 @@
         <v>4.6e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3484,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K18"/>
@@ -3528,25 +3700,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>15</v>
@@ -3557,10 +3729,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1">
         <v>1.008</v>
@@ -3569,15 +3741,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>174.95</v>
@@ -3586,15 +3758,15 @@
         <v>-3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1">
         <v>18.015</v>
@@ -3603,15 +3775,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1">
         <v>17.007</v>
@@ -3620,15 +3792,15 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1">
         <v>503.15</v>
@@ -3637,15 +3809,15 @@
         <v>-4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1">
         <v>479.13</v>
@@ -3654,15 +3826,15 @@
         <v>-4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1">
         <v>519.15</v>
@@ -3671,15 +3843,15 @@
         <v>-4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1">
         <v>480.11</v>
@@ -3688,100 +3860,100 @@
         <v>-4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1">
         <v>-51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1">
         <v>-50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1">
         <v>-109</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1">
         <v>-121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1">
         <v>-177</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>345.21</v>
@@ -3790,15 +3962,15 @@
         <v>-2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
         <v>321.18</v>
@@ -3807,15 +3979,15 @@
         <v>-2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1">
         <v>361.21</v>
@@ -3824,15 +3996,15 @@
         <v>-2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1">
         <v>322.17</v>
@@ -3841,7 +4013,7 @@
         <v>-2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3854,7 +4026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I18"/>
@@ -3883,19 +4055,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -3906,240 +4078,240 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K18"/>
@@ -4179,25 +4351,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>15</v>
@@ -4208,291 +4380,291 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>1000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4505,7 +4677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -4531,16 +4703,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -4557,82 +4729,4 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.78333333333333" style="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D3">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="1"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$C$1:$K$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -143,14 +143,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
@@ -784,13 +784,7 @@
     <t>Standard error</t>
   </si>
   <si>
-    <t>cell_cycle_len</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
+    <t>mean_doubling_time</t>
   </si>
   <si>
     <t>k_cat</t>
@@ -877,9 +871,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -934,46 +928,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,7 +944,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,9 +1032,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,47 +1047,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1082,7 +1076,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1160,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,19 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,19 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,97 +1244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,6 +1288,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1305,6 +1308,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,17 +1342,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,143 +1361,125 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1495,11 +1489,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2384,13 +2378,13 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.675" style="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.875" style="1" customWidth="1"/>
@@ -2827,14 +2821,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:F16"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2842,7 +2836,7 @@
     <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.78333333333333" style="1"/>
     <col min="3" max="3" width="5.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.78333333333333" style="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="1025" width="8.78333333333333" style="1"/>
@@ -2896,28 +2890,28 @@
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D3" s="1">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>154</v>
@@ -2925,13 +2919,13 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>154</v>
@@ -2939,13 +2933,13 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>154</v>
@@ -2953,13 +2947,13 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>154</v>
@@ -2967,16 +2961,16 @@
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.035</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
@@ -2984,115 +2978,101 @@
         <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.035</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" ht="15.1" customHeight="1" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D14" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="1">
-        <v>1000</v>
+      <c r="D15" s="6">
+        <v>6.02214075862e+23</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="6">
-        <v>6.02214075862e+23</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F16">
+  <autoFilter ref="A1:F15">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3190,19 +3170,19 @@
         <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>14</v>
@@ -3253,46 +3233,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -3316,7 +3296,7 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4329,17 +4309,17 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.8833333333333" style="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
     <col min="2" max="1025" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
@@ -4423,7 +4403,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="1">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>102</v>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="14" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
@@ -42,8 +42,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$C$1:$K$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
@@ -127,22 +127,22 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$2</definedName>
@@ -775,7 +775,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -870,10 +870,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -907,9 +907,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -920,16 +930,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,53 +966,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,15 +979,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,10 +1017,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1040,15 +1048,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1070,7 +1070,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1160,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,31 +1190,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,61 +1220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,61 +1244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,11 +1279,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,16 +1304,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,26 +1333,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,139 +1352,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2763,12 +2763,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4309,7 +4309,7 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" firstSheet="1" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Algorithm</t>
@@ -870,9 +876,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -916,7 +922,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,9 +936,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -943,9 +960,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -972,18 +1005,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,41 +1034,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1044,14 +1058,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1070,7 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,31 +1100,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,13 +1148,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,43 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,31 +1238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,6 +1285,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1290,30 +1305,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,20 +1326,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,138 +1358,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2071,16 +2077,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -2091,24 +2097,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2155,31 +2161,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -2190,172 +2196,172 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2401,25 +2407,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>15</v>
@@ -2430,202 +2436,202 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2664,25 +2670,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
@@ -2727,19 +2733,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -2763,7 +2769,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2784,22 +2790,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>15</v>
@@ -2851,22 +2857,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -2877,198 +2883,198 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1">
         <v>0.035</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D13" s="1">
         <v>1100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D14" s="1">
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D15" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3107,16 +3113,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -3161,34 +3167,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>15</v>
@@ -3233,46 +3239,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -3352,15 +3358,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -3406,18 +3412,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3454,13 +3468,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -3471,24 +3485,24 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3527,40 +3541,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>15</v>
@@ -3571,28 +3585,28 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" s="6">
         <v>4.6e-17</v>
@@ -3601,33 +3615,33 @@
         <v>4.6e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3636,10 +3650,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3680,25 +3694,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>15</v>
@@ -3709,10 +3723,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>1.008</v>
@@ -3721,15 +3735,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1">
         <v>174.95</v>
@@ -3738,15 +3752,15 @@
         <v>-3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1">
         <v>18.015</v>
@@ -3755,15 +3769,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <v>17.007</v>
@@ -3772,15 +3786,15 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1">
         <v>503.15</v>
@@ -3789,15 +3803,15 @@
         <v>-4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1">
         <v>479.13</v>
@@ -3806,15 +3820,15 @@
         <v>-4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1">
         <v>519.15</v>
@@ -3823,15 +3837,15 @@
         <v>-4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1">
         <v>480.11</v>
@@ -3840,100 +3854,100 @@
         <v>-4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1">
         <v>-51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1">
         <v>-50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1">
         <v>-109</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1">
         <v>-121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>-177</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1">
         <v>345.21</v>
@@ -3942,15 +3956,15 @@
         <v>-2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1">
         <v>321.18</v>
@@ -3959,15 +3973,15 @@
         <v>-2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1">
         <v>361.21</v>
@@ -3976,15 +3990,15 @@
         <v>-2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1">
         <v>322.17</v>
@@ -3993,7 +4007,7 @@
         <v>-2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4035,19 +4049,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -4058,240 +4072,240 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4331,25 +4345,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>15</v>
@@ -4360,291 +4374,291 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1">
         <v>100000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1">
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1">
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1">
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1">
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1">
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1">
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1">
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1">
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4683,16 +4697,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,27 +26,28 @@
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
-    <sheet name="References" sheetId="18" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="20" r:id="rId19"/>
+    <sheet name="References" sheetId="18" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$K$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$C$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$L$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$C$1:$L$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$C$1:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$C$1:$L$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objective reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -63,30 +64,30 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$P$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$K$15</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$Q$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$L$15</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$L$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$L$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$L$15</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'[1]#REF'!$C$1:$K$18</definedName>
@@ -119,14 +120,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$K$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">'Rate laws'!$C$1:$L$6</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
@@ -159,21 +160,21 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="238">
   <si>
     <t>Id</t>
   </si>
@@ -262,6 +263,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>transcription</t>
   </si>
   <si>
@@ -829,10 +833,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -876,9 +895,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -921,16 +940,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,21 +960,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -966,16 +967,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -992,9 +993,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1005,14 +1020,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,7 +1052,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,28 +1074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,19 +1095,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,25 +1131,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,85 +1173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,7 +1203,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,25 +1251,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,17 +1289,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,7 +1302,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,17 +1337,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1361,149 +1363,166 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1512,6 +1531,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1957,7 +1979,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -1971,19 +1993,19 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
@@ -1997,19 +2019,19 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
@@ -2052,24 +2074,24 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="8.78333333333333" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333" style="1"/>
+    <col min="4" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2077,10 +2099,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -2089,32 +2111,35 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2130,14 +2155,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F11"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2150,10 +2175,10 @@
     <col min="7" max="7" width="10.7166666666667" style="1"/>
     <col min="8" max="8" width="10.8166666666667" style="1"/>
     <col min="9" max="10" width="13.3916666666667" style="1"/>
-    <col min="11" max="1026" width="8.78333333333333" style="1"/>
+    <col min="11" max="1027" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:13">
+    <row r="1" ht="15.1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2161,25 +2186,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -2188,180 +2213,183 @@
         <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>154</v>
+      <c r="A2" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>157</v>
+      <c r="A3" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>159</v>
+      <c r="A4" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>161</v>
+      <c r="A5" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>163</v>
+      <c r="A6" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>165</v>
+      <c r="A7" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>167</v>
+      <c r="A8" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>169</v>
+      <c r="A9" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>171</v>
+      <c r="A10" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>173</v>
+      <c r="A11" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2377,14 +2405,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2395,11 +2423,11 @@
     <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
-    <col min="7" max="11" width="13.3916666666667" style="1"/>
-    <col min="12" max="1025" width="8.78333333333333" style="1"/>
+    <col min="7" max="12" width="13.3916666666667" style="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2407,19 +2435,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -2427,215 +2455,218 @@
       <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>178</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>159</v>
+        <v>184</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>161</v>
+        <v>186</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>188</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>165</v>
+        <v>190</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>192</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>169</v>
+        <v>194</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>171</v>
+        <v>196</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>173</v>
+        <v>198</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:K11">
+  <autoFilter ref="C1:L11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2647,22 +2678,22 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1027" width="9.10833333333333" style="1"/>
+    <col min="1" max="1028" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2670,19 +2701,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -2691,9 +2722,12 @@
         <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2710,22 +2744,22 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2733,13 +2767,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -2748,9 +2782,12 @@
         <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2767,50 +2804,53 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2827,14 +2867,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2845,11 +2885,11 @@
     <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.78333333333333" style="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.78333333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="4"/>
+    <col min="7" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:10">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2857,16 +2897,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
@@ -2875,206 +2915,209 @@
         <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>205</v>
+      <c r="A2" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D8" s="1">
         <v>0.035</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D13" s="1">
         <v>1100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1">
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="6">
+        <v>180</v>
+      </c>
+      <c r="D15" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3090,22 +3133,22 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+    <row r="1" ht="15.1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3113,10 +3156,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -3125,9 +3168,12 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3144,14 +3190,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3159,7 +3205,7 @@
     <col min="1" max="1025" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:14">
+    <row r="1" ht="15.1" customHeight="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3167,16 +3213,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>217</v>
@@ -3185,21 +3231,45 @@
         <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3216,84 +3286,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3355,12 +3439,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
@@ -3371,8 +3539,8 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="1"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="9"/>
-    <col min="1020" max="16384" width="9" style="9"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="10"/>
+    <col min="1020" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3444,23 +3612,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1018" width="8.78333333333333" style="1"/>
-    <col min="1019" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1" max="1019" width="8.78333333333333" style="1"/>
+    <col min="1020" max="1026" width="8.78333333333333" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:7">
+    <row r="1" ht="15.1" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3476,37 +3644,40 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
+      <c r="A2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3">
+  <autoFilter ref="A1:H3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3518,22 +3689,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1030" width="8.78333333333333" style="1"/>
+    <col min="1" max="1031" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="15.1" customHeight="1" spans="1:16">
+    <row r="1" s="5" customFormat="1" ht="15.1" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3541,34 +3712,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>14</v>
@@ -3576,88 +3747,91 @@
       <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A2" s="8" t="s">
-        <v>44</v>
+      <c r="A2" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4.6e-17</v>
+      </c>
+      <c r="J2" s="7">
+        <v>4.6e-18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="6">
-        <v>4.6e-17</v>
-      </c>
-      <c r="J2" s="6">
-        <v>4.6e-18</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>1e-12</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P3">
+  <autoFilter ref="A1:Q3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3669,24 +3843,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="1"/>
     <col min="4" max="4" width="23.8083333333333" style="1"/>
-    <col min="5" max="1025" width="8.78333333333333" style="1"/>
+    <col min="5" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3694,19 +3868,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -3714,19 +3888,22 @@
       <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>62</v>
+      <c r="A2" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1">
         <v>1.008</v>
@@ -3735,15 +3912,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>64</v>
+      <c r="A3" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1">
         <v>174.95</v>
@@ -3752,15 +3929,15 @@
         <v>-3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>66</v>
+      <c r="A4" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1">
         <v>18.015</v>
@@ -3769,15 +3946,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>67</v>
+      <c r="A5" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1">
         <v>17.007</v>
@@ -3786,15 +3963,15 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>68</v>
+      <c r="A6" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1">
         <v>503.15</v>
@@ -3803,15 +3980,15 @@
         <v>-4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>70</v>
+      <c r="A7" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1">
         <v>479.13</v>
@@ -3820,15 +3997,15 @@
         <v>-4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>72</v>
+      <c r="A8" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>519.15</v>
@@ -3837,15 +4014,15 @@
         <v>-4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>74</v>
+      <c r="A9" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1">
         <v>480.11</v>
@@ -3854,100 +4031,100 @@
         <v>-4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>76</v>
+      <c r="A10" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1">
         <v>-51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>80</v>
+      <c r="A11" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1">
         <v>-50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>83</v>
+      <c r="A12" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1">
         <v>-109</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>86</v>
+      <c r="A13" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1">
         <v>-121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>89</v>
+      <c r="A14" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1">
         <v>-177</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1">
         <v>345.21</v>
@@ -3956,15 +4133,15 @@
         <v>-2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1">
         <v>321.18</v>
@@ -3973,15 +4150,15 @@
         <v>-2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1">
         <v>361.21</v>
@@ -3990,15 +4167,15 @@
         <v>-2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1">
         <v>322.17</v>
@@ -4007,11 +4184,11 @@
         <v>-2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K18">
+  <autoFilter ref="A1:L18">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4023,25 +4200,25 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="6" width="19.3916666666667" style="1"/>
-    <col min="7" max="7" width="9.10833333333333" style="1"/>
-    <col min="8" max="9" width="19.3916666666667" style="1"/>
-    <col min="10" max="1025" width="9.10833333333333" style="1"/>
+    <col min="7" max="8" width="9.10833333333333" style="1"/>
+    <col min="9" max="10" width="19.3916666666667" style="1"/>
+    <col min="11" max="1026" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4049,13 +4226,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -4064,248 +4241,251 @@
         <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4321,23 +4501,23 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.78333333333333" style="1"/>
+    <col min="2" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4345,19 +4525,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -4365,304 +4545,307 @@
       <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1">
         <v>100000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1">
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1">
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1">
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1">
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1">
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1">
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1">
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:K18">
+  <autoFilter ref="C1:L18">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4674,22 +4857,24 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1" max="7" width="8.78333333333333" style="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:8">
+    <row r="1" ht="15.1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4697,10 +4882,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
@@ -4708,10 +4893,13 @@
       <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="6" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="237">
   <si>
     <t>Id</t>
   </si>
@@ -257,7 +257,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -272,7 +272,7 @@
     <t>Transcription</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>degradation</t>
@@ -317,13 +317,13 @@
     <t>Cytosol</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -332,7 +332,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -344,7 +344,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -416,7 +416,7 @@
     <t>C476H537N188O347P50</t>
   </si>
   <si>
-    <t>rna</t>
+    <t>RNA</t>
   </si>
   <si>
     <t>RNA_2</t>
@@ -714,9 +714,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_trn_1</t>
@@ -895,10 +892,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -940,11 +937,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -961,60 +1056,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,56 +1069,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1095,7 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,67 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +1140,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,13 +1242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,55 +1260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,11 +1286,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,7 +1305,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,17 +1325,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,11 +1349,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,157 +1375,151 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1544,6 +1541,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2412,7 +2412,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2475,11 +2475,9 @@
       <c r="D2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>157</v>
@@ -2487,7 +2485,7 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>158</v>
@@ -2495,11 +2493,9 @@
       <c r="D3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>157</v>
@@ -2507,7 +2503,7 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>160</v>
@@ -2515,11 +2511,9 @@
       <c r="D4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>157</v>
@@ -2527,7 +2521,7 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>162</v>
@@ -2535,11 +2529,9 @@
       <c r="D5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>157</v>
@@ -2547,7 +2539,7 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>164</v>
@@ -2555,11 +2547,9 @@
       <c r="D6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>157</v>
@@ -2567,7 +2557,7 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>166</v>
@@ -2575,11 +2565,9 @@
       <c r="D7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>157</v>
@@ -2587,7 +2575,7 @@
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>168</v>
@@ -2595,11 +2583,9 @@
       <c r="D8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>157</v>
@@ -2607,7 +2593,7 @@
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>170</v>
@@ -2615,11 +2601,9 @@
       <c r="D9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>157</v>
@@ -2627,7 +2611,7 @@
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>172</v>
@@ -2635,11 +2619,9 @@
       <c r="D10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>157</v>
@@ -2647,7 +2629,7 @@
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>174</v>
@@ -2655,11 +2637,9 @@
       <c r="D11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>157</v>
@@ -2710,10 +2690,10 @@
         <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
@@ -2773,7 +2753,7 @@
         <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -2827,13 +2807,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>103</v>
@@ -2874,7 +2854,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2900,10 +2880,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>103</v>
@@ -2926,10 +2906,7 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2940,10 +2917,10 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="1">
         <v>0.05</v>
@@ -2954,10 +2931,10 @@
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
@@ -2968,10 +2945,10 @@
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2982,10 +2959,10 @@
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
@@ -2996,10 +2973,10 @@
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -3010,114 +2987,105 @@
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1">
         <v>0.035</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="D13" s="1">
         <v>1100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="D14" s="1">
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="D15" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3103,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3213,10 +3181,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>103</v>
@@ -3225,10 +3193,10 @@
         <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>21</v>
@@ -3243,22 +3211,22 @@
         <v>25</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>14</v>
@@ -3312,10 +3280,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>103</v>
@@ -3324,7 +3292,7 @@
         <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>14</v>
@@ -3444,7 +3412,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3465,46 +3433,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
@@ -3539,8 +3507,8 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="1"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="10"/>
-    <col min="1020" max="16384" width="9" style="10"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="11"/>
+    <col min="1020" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3619,7 +3587,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -3635,7 +3603,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3696,7 +3664,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3758,7 +3726,7 @@
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3796,7 +3764,7 @@
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3850,7 +3818,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4508,7 +4476,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4562,7 +4530,7 @@
       <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1">
@@ -4579,7 +4547,7 @@
       <c r="C3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="1">
@@ -4596,7 +4564,7 @@
       <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="1">
@@ -4613,7 +4581,7 @@
       <c r="C5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1">
@@ -4630,7 +4598,7 @@
       <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1">
@@ -4647,7 +4615,7 @@
       <c r="C7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="1">
@@ -4664,7 +4632,7 @@
       <c r="C8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="1">
@@ -4681,7 +4649,7 @@
       <c r="C9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="1">
@@ -4698,7 +4666,7 @@
       <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="1">
@@ -4715,7 +4683,7 @@
       <c r="C11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="1">
@@ -4732,7 +4700,7 @@
       <c r="C12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="1">
@@ -4749,7 +4717,7 @@
       <c r="C13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="1">
@@ -4766,7 +4734,7 @@
       <c r="C14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="1">
@@ -4783,7 +4751,7 @@
       <c r="C15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="1">
@@ -4800,7 +4768,7 @@
       <c r="C16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="1">
@@ -4817,7 +4785,7 @@
       <c r="C17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="1">
@@ -4834,7 +4802,7 @@
       <c r="C18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="1">

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="6" activeTab="19"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -892,10 +892,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -929,26 +929,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -961,22 +953,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,7 +973,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,6 +1014,28 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1025,28 +1054,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1055,25 +1062,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1092,25 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1116,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,7 +1170,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,7 +1254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,109 +1266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,21 +1283,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1334,6 +1319,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1345,6 +1341,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,163 +1383,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1545,6 +1545,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2158,11 +2161,11 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2475,7 +2478,6 @@
       <c r="D2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>180</v>
       </c>
@@ -2493,7 +2495,6 @@
       <c r="D3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>182</v>
       </c>
@@ -2511,7 +2512,6 @@
       <c r="D4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>184</v>
       </c>
@@ -2529,7 +2529,6 @@
       <c r="D5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>186</v>
       </c>
@@ -2547,7 +2546,6 @@
       <c r="D6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>188</v>
       </c>
@@ -2565,7 +2563,6 @@
       <c r="D7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>190</v>
       </c>
@@ -2583,7 +2580,6 @@
       <c r="D8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>192</v>
       </c>
@@ -2601,7 +2597,6 @@
       <c r="D9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>194</v>
       </c>
@@ -2619,7 +2614,6 @@
       <c r="D10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>196</v>
       </c>
@@ -2637,7 +2631,6 @@
       <c r="D11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>198</v>
       </c>
@@ -3412,7 +3405,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3507,8 +3500,8 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="1"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="11"/>
-    <col min="1020" max="16384" width="9" style="11"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="12"/>
+    <col min="1020" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3726,7 +3719,7 @@
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3764,7 +3757,7 @@
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3813,22 +3806,25 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10:G14"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="1"/>
     <col min="4" max="4" width="23.8083333333333" style="1"/>
-    <col min="5" max="1026" width="8.78333333333333" style="1"/>
+    <col min="5" max="13" width="8.78333333333333" style="1"/>
+    <col min="14" max="14" width="11.5" style="1"/>
+    <col min="15" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:7">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
@@ -3883,7 +3879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:7">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -3900,7 +3896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:7">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -3917,7 +3913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" ht="15.1" customHeight="1" spans="1:7">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
@@ -3934,7 +3930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" ht="15.1" customHeight="1" spans="1:7">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
@@ -3951,7 +3947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="15.1" customHeight="1" spans="1:7">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -3968,7 +3964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="15.1" customHeight="1" spans="1:7">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>73</v>
       </c>
@@ -3985,7 +3981,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" ht="15.1" customHeight="1" spans="1:7">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>75</v>
       </c>
@@ -4002,7 +3998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" ht="15.1" customHeight="1" spans="1:7">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -4012,6 +4008,9 @@
       <c r="D10" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="E10" s="1">
+        <v>15992.297</v>
+      </c>
       <c r="F10" s="1">
         <v>-51</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" ht="15.1" customHeight="1" spans="1:7">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
@@ -4029,6 +4028,9 @@
       <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="E11" s="1">
+        <v>15067.314</v>
+      </c>
       <c r="F11" s="1">
         <v>-50</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="15.1" customHeight="1" spans="1:7">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>84</v>
       </c>
@@ -4046,6 +4048,9 @@
       <c r="D12" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="E12" s="1">
+        <v>33930.511</v>
+      </c>
       <c r="F12" s="1">
         <v>-109</v>
       </c>
@@ -4053,7 +4058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" ht="15.1" customHeight="1" spans="1:7">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>87</v>
       </c>
@@ -4063,6 +4068,9 @@
       <c r="D13" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="E13" s="1">
+        <v>37368.167</v>
+      </c>
       <c r="F13" s="1">
         <v>-121</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="15.1" customHeight="1" spans="1:7">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>90</v>
       </c>
@@ -4080,6 +4088,9 @@
       <c r="D14" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="E14" s="1">
+        <v>55062.435</v>
+      </c>
       <c r="F14" s="1">
         <v>-177</v>
       </c>
@@ -4087,7 +4098,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" ht="15.1" customHeight="1" spans="1:7">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -4104,7 +4115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" ht="15.1" customHeight="1" spans="1:7">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>95</v>
       </c>
@@ -4121,7 +4132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" ht="15.1" customHeight="1" spans="1:7">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -4138,7 +4149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" ht="15.1" customHeight="1" spans="1:7">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" activeTab="5"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -892,10 +892,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -929,36 +929,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,25 +957,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,9 +979,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,8 +1031,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,14 +1049,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,16 +1063,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,7 +1092,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,7 +1140,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,37 +1212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,13 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,19 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,13 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,61 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1290,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,11 +1310,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1326,21 +1356,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,154 +1383,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3489,10 +3489,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3806,7 +3806,7 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,15 @@
     <sheet name="Evidence" sheetId="17" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="20" r:id="rId19"/>
     <sheet name="References" sheetId="18" r:id="rId20"/>
+    <sheet name="Authors" sheetId="21" r:id="rId21"/>
+    <sheet name="Changes" sheetId="22" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$Q$3</definedName>
@@ -48,14 +51,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
@@ -168,13 +171,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="Id">'[2]Rate laws'!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="251">
   <si>
     <t>Id</t>
   </si>
@@ -203,657 +207,651 @@
     <t>wc_lang version</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>Transcription</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>degradation</t>
+  </si>
+  <si>
+    <t>Degradation</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular_compartment</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>HO7P2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>C10H12N5O13P3</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>C9H12N3O14P3</t>
+  </si>
+  <si>
+    <t>GTP</t>
+  </si>
+  <si>
+    <t>C10H12N5O14P3</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>C9H11N2O15P3</t>
+  </si>
+  <si>
+    <t>RNA_1</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAACCCCCCCCCCGGGGGGGGUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C476H537N188O347P50</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>RNA_2</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCCCCGGGUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C444H514N127O370P49</t>
+  </si>
+  <si>
+    <t>RNA_3</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1012H1151N366O759P108</t>
+  </si>
+  <si>
+    <t>RNA_4</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1110H1271N370O866P120</t>
+  </si>
+  <si>
+    <t>RNA_5</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1640H1867N570O1253P176</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>C10H12N5O7P</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>C9H12N3O8P</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>C10H12N5O8P</t>
+  </si>
+  <si>
+    <t>UMP</t>
+  </si>
+  <si>
+    <t>C9H11N2O9P</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>H[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>PPI[c]</t>
+  </si>
+  <si>
+    <t>H2O[c]</t>
+  </si>
+  <si>
+    <t>H2O[e]</t>
+  </si>
+  <si>
+    <t>ATP[c]</t>
+  </si>
+  <si>
+    <t>CTP[c]</t>
+  </si>
+  <si>
+    <t>GTP[c]</t>
+  </si>
+  <si>
+    <t>UTP[c]</t>
+  </si>
+  <si>
+    <t>RNA_1[c]</t>
+  </si>
+  <si>
+    <t>RNA_2[c]</t>
+  </si>
+  <si>
+    <t>RNA_3[c]</t>
+  </si>
+  <si>
+    <t>RNA_4[c]</t>
+  </si>
+  <si>
+    <t>RNA_5[c]</t>
+  </si>
+  <si>
+    <t>AMP[c]</t>
+  </si>
+  <si>
+    <t>CMP[c]</t>
+  </si>
+  <si>
+    <t>GMP[c]</t>
+  </si>
+  <si>
+    <t>UMP[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-PPI[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-AMP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-CMP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-GMP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-UMP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ATP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-CTP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-GTP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-UTP[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_1[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_3[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-RNA_5[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>transcription_RNA_1</t>
+  </si>
+  <si>
+    <t>[c]: (18) ATP + (10) CTP + (8) GTP + (14) UTP + H2O ==&gt; H + (050) PPI + RNA_1</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>transcription_RNA_2</t>
+  </si>
+  <si>
+    <t>[c]: (00) ATP + (20) CTP + (3) GTP + (26) UTP + H2O ==&gt; H + (049) PPI + RNA_2</t>
+  </si>
+  <si>
+    <t>transcription_RNA_3</t>
+  </si>
+  <si>
+    <t>[c]: (36) ATP + (30) CTP + (4) GTP + (38) UTP + H2O ==&gt; H + (108) PPI + RNA_3</t>
+  </si>
+  <si>
+    <t>transcription_RNA_4</t>
+  </si>
+  <si>
+    <t>[c]: (25) ATP + (40) CTP + (5) GTP + (50) UTP + H2O ==&gt; H + (120) PPI + RNA_4</t>
+  </si>
+  <si>
+    <t>transcription_RNA_5</t>
+  </si>
+  <si>
+    <t>[c]: (50) ATP + (50) CTP + (6) GTP + (70) UTP + H2O ==&gt; H + (176) PPI + RNA_5</t>
+  </si>
+  <si>
+    <t>degradation_RNA_1</t>
+  </si>
+  <si>
+    <t>[c]: RNA_1 + (049) H2O ==&gt; (18) AMP + (10) CMP + (8) GMP + (14) UMP + (49) H</t>
+  </si>
+  <si>
+    <t>degradation_RNA_2</t>
+  </si>
+  <si>
+    <t>[c]: RNA_2 + (048) H2O ==&gt; (00) AMP + (20) CMP + (3) GMP + (26) UMP + (48) H</t>
+  </si>
+  <si>
+    <t>degradation_RNA_3</t>
+  </si>
+  <si>
+    <t>[c]: RNA_3 + (107) H2O ==&gt; (36) AMP + (30) CMP + (4) GMP + (38) UMP + (107) H</t>
+  </si>
+  <si>
+    <t>degradation_RNA_4</t>
+  </si>
+  <si>
+    <t>[c]: RNA_4 + (119) H2O ==&gt; (25) AMP + (40) CMP + (5) GMP + (50) UMP + (119) H</t>
+  </si>
+  <si>
+    <t>degradation_RNA_5</t>
+  </si>
+  <si>
+    <t>[c]: RNA_5 + (175) H2O ==&gt; (50) AMP + (50) CMP + (6) GMP + (70) UMP + (175) H</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>transcription_RNA_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_1</t>
+  </si>
+  <si>
+    <t>transcription_RNA_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_2</t>
+  </si>
+  <si>
+    <t>transcription_RNA_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_3</t>
+  </si>
+  <si>
+    <t>transcription_RNA_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_4</t>
+  </si>
+  <si>
+    <t>transcription_RNA_5-forward</t>
+  </si>
+  <si>
+    <t>k_cat_trn_5</t>
+  </si>
+  <si>
+    <t>degradation_RNA_1-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_1 * RNA_1[c]</t>
+  </si>
+  <si>
+    <t>degradation_RNA_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_2 * RNA_2[c]</t>
+  </si>
+  <si>
+    <t>degradation_RNA_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_3 * RNA_3[c]</t>
+  </si>
+  <si>
+    <t>degradation_RNA_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_4 * RNA_4[c]</t>
+  </si>
+  <si>
+    <t>degradation_RNA_5-forward</t>
+  </si>
+  <si>
+    <t>k_cat_deg_5 * RNA_5[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>mean_doubling_time</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>k_cat_deg_1</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_deg_2</t>
+  </si>
+  <si>
+    <t>k_cat_deg_3</t>
+  </si>
+  <si>
+    <t>k_cat_deg_4</t>
+  </si>
+  <si>
+    <t>k_cat_deg_5</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>transcription</t>
-  </si>
-  <si>
-    <t>Transcription</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>degradation</t>
-  </si>
-  <si>
-    <t>Degradation</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular_compartment</t>
-  </si>
-  <si>
-    <t>density_e</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>PPI</t>
-  </si>
-  <si>
-    <t>HO7P2</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>C10H12N5O13P3</t>
-  </si>
-  <si>
-    <t>CTP</t>
-  </si>
-  <si>
-    <t>C9H12N3O14P3</t>
-  </si>
-  <si>
-    <t>GTP</t>
-  </si>
-  <si>
-    <t>C10H12N5O14P3</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>C9H11N2O15P3</t>
-  </si>
-  <si>
-    <t>RNA_1</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAACCCCCCCCCCGGGGGGGGUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C476H537N188O347P50</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>RNA_2</t>
-  </si>
-  <si>
-    <t>CCCCCCCCCCCCCCCCCCCCGGGUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C444H514N127O370P49</t>
-  </si>
-  <si>
-    <t>RNA_3</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1012H1151N366O759P108</t>
-  </si>
-  <si>
-    <t>RNA_4</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1110H1271N370O866P120</t>
-  </si>
-  <si>
-    <t>RNA_5</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1640H1867N570O1253P176</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>C10H12N5O7P</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>C9H12N3O8P</t>
-  </si>
-  <si>
-    <t>GMP</t>
-  </si>
-  <si>
-    <t>C10H12N5O8P</t>
-  </si>
-  <si>
-    <t>UMP</t>
-  </si>
-  <si>
-    <t>C9H11N2O9P</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>H[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>PPI[c]</t>
-  </si>
-  <si>
-    <t>H2O[c]</t>
-  </si>
-  <si>
-    <t>H2O[e]</t>
-  </si>
-  <si>
-    <t>ATP[c]</t>
-  </si>
-  <si>
-    <t>CTP[c]</t>
-  </si>
-  <si>
-    <t>GTP[c]</t>
-  </si>
-  <si>
-    <t>UTP[c]</t>
-  </si>
-  <si>
-    <t>RNA_1[c]</t>
-  </si>
-  <si>
-    <t>RNA_2[c]</t>
-  </si>
-  <si>
-    <t>RNA_3[c]</t>
-  </si>
-  <si>
-    <t>RNA_4[c]</t>
-  </si>
-  <si>
-    <t>RNA_5[c]</t>
-  </si>
-  <si>
-    <t>AMP[c]</t>
-  </si>
-  <si>
-    <t>CMP[c]</t>
-  </si>
-  <si>
-    <t>GMP[c]</t>
-  </si>
-  <si>
-    <t>UMP[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-PPI[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-AMP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-CMP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-GMP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-UMP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-ATP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-CTP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-GTP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-UTP[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_1[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_3[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-RNA_5[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>volume_e</t>
-  </si>
-  <si>
-    <t>e / density_e</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>transcription_RNA_1</t>
-  </si>
-  <si>
-    <t>[c]: (18) ATP + (10) CTP + (8) GTP + (14) UTP + H2O ==&gt; H + (050) PPI + RNA_1</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>transcription_RNA_2</t>
-  </si>
-  <si>
-    <t>[c]: (00) ATP + (20) CTP + (3) GTP + (26) UTP + H2O ==&gt; H + (049) PPI + RNA_2</t>
-  </si>
-  <si>
-    <t>transcription_RNA_3</t>
-  </si>
-  <si>
-    <t>[c]: (36) ATP + (30) CTP + (4) GTP + (38) UTP + H2O ==&gt; H + (108) PPI + RNA_3</t>
-  </si>
-  <si>
-    <t>transcription_RNA_4</t>
-  </si>
-  <si>
-    <t>[c]: (25) ATP + (40) CTP + (5) GTP + (50) UTP + H2O ==&gt; H + (120) PPI + RNA_4</t>
-  </si>
-  <si>
-    <t>transcription_RNA_5</t>
-  </si>
-  <si>
-    <t>[c]: (50) ATP + (50) CTP + (6) GTP + (70) UTP + H2O ==&gt; H + (176) PPI + RNA_5</t>
-  </si>
-  <si>
-    <t>degradation_RNA_1</t>
-  </si>
-  <si>
-    <t>[c]: RNA_1 + (049) H2O ==&gt; (18) AMP + (10) CMP + (8) GMP + (14) UMP + (49) H</t>
-  </si>
-  <si>
-    <t>degradation_RNA_2</t>
-  </si>
-  <si>
-    <t>[c]: RNA_2 + (048) H2O ==&gt; (00) AMP + (20) CMP + (3) GMP + (26) UMP + (48) H</t>
-  </si>
-  <si>
-    <t>degradation_RNA_3</t>
-  </si>
-  <si>
-    <t>[c]: RNA_3 + (107) H2O ==&gt; (36) AMP + (30) CMP + (4) GMP + (38) UMP + (107) H</t>
-  </si>
-  <si>
-    <t>degradation_RNA_4</t>
-  </si>
-  <si>
-    <t>[c]: RNA_4 + (119) H2O ==&gt; (25) AMP + (40) CMP + (5) GMP + (50) UMP + (119) H</t>
-  </si>
-  <si>
-    <t>degradation_RNA_5</t>
-  </si>
-  <si>
-    <t>[c]: RNA_5 + (175) H2O ==&gt; (50) AMP + (50) CMP + (6) GMP + (70) UMP + (175) H</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>transcription_RNA_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_1</t>
-  </si>
-  <si>
-    <t>transcription_RNA_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_2</t>
-  </si>
-  <si>
-    <t>transcription_RNA_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_3</t>
-  </si>
-  <si>
-    <t>transcription_RNA_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_4</t>
-  </si>
-  <si>
-    <t>transcription_RNA_5-forward</t>
-  </si>
-  <si>
-    <t>k_cat_trn_5</t>
-  </si>
-  <si>
-    <t>degradation_RNA_1-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_1 * RNA_1[c]</t>
-  </si>
-  <si>
-    <t>degradation_RNA_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_2 * RNA_2[c]</t>
-  </si>
-  <si>
-    <t>degradation_RNA_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_3 * RNA_3[c]</t>
-  </si>
-  <si>
-    <t>degradation_RNA_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_4 * RNA_4[c]</t>
-  </si>
-  <si>
-    <t>degradation_RNA_5-forward</t>
-  </si>
-  <si>
-    <t>k_cat_deg_5 * RNA_5[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>mean_doubling_time</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>k_cat_deg_1</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_deg_2</t>
-  </si>
-  <si>
-    <t>k_cat_deg_3</t>
-  </si>
-  <si>
-    <t>k_cat_deg_4</t>
-  </si>
-  <si>
-    <t>k_cat_deg_5</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -885,6 +883,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -892,9 +938,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -929,16 +975,41 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,7 +1028,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -972,22 +1100,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,79 +1116,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1092,7 +1138,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,7 +1174,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,85 +1264,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,73 +1318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,6 +1329,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1306,30 +1361,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,6 +1391,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1375,147 +1415,153 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,6 +1738,61 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Model"/>
+      <sheetName val="Taxon"/>
+      <sheetName val="Environment"/>
+      <sheetName val="Submodels"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Species types"/>
+      <sheetName val="Species"/>
+      <sheetName val="Initial species concentrations"/>
+      <sheetName val="Observables"/>
+      <sheetName val="Functions"/>
+      <sheetName val="Reactions"/>
+      <sheetName val="Rate laws"/>
+      <sheetName val="dFBA objectives"/>
+      <sheetName val="dFBA objective reactions"/>
+      <sheetName val="dFBA objective species"/>
+      <sheetName val="Parameters"/>
+      <sheetName val="Stop conditions"/>
+      <sheetName val="Evidence"/>
+      <sheetName val="Interpretations"/>
+      <sheetName val="References"/>
+      <sheetName val="Authors"/>
+      <sheetName val="Changes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1955,14 +2056,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2022,25 +2123,22 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" ht="15.1" customHeight="1" spans="1:2">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" ht="15.1" customHeight="1" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="15.1" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" ht="15.1" customHeight="1" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="15.1" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2049,23 +2147,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" ht="15.1" customHeight="1" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B15">
+  <autoFilter ref="A1:B12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2102,47 +2185,47 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2189,210 +2272,210 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2438,204 +2521,204 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2674,34 +2757,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2740,28 +2823,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2800,31 +2883,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2870,215 +2953,215 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1">
         <v>0.035</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1">
         <v>1100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1">
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D15" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3117,25 +3200,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3174,64 +3257,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3273,31 +3356,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3372,22 +3455,22 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3426,52 +3509,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3484,12 +3567,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -3509,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
@@ -3519,7 +3741,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -3527,15 +3749,15 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>7.75</v>
@@ -3543,25 +3765,25 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3597,44 +3819,44 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3673,75 +3895,75 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:12">
       <c r="A2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I2" s="7">
         <v>4.6e-17</v>
@@ -3750,33 +3972,33 @@
         <v>4.6e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I3" s="7">
         <v>1e-12</v>
@@ -3785,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3832,42 +4054,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1">
         <v>1.008</v>
@@ -3876,15 +4098,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>174.95</v>
@@ -3893,15 +4115,15 @@
         <v>-3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1">
         <v>18.015</v>
@@ -3910,15 +4132,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1">
         <v>17.007</v>
@@ -3927,15 +4149,15 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1">
         <v>503.15</v>
@@ -3944,15 +4166,15 @@
         <v>-4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1">
         <v>479.13</v>
@@ -3961,15 +4183,15 @@
         <v>-4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1">
         <v>519.15</v>
@@ -3978,15 +4200,15 @@
         <v>-4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1">
         <v>480.11</v>
@@ -3995,18 +4217,18 @@
         <v>-4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1">
         <v>15992.297</v>
@@ -4015,18 +4237,18 @@
         <v>-51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>15067.314</v>
@@ -4035,18 +4257,18 @@
         <v>-50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1">
         <v>33930.511</v>
@@ -4055,18 +4277,18 @@
         <v>-109</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1">
         <v>37368.167</v>
@@ -4075,18 +4297,18 @@
         <v>-121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1">
         <v>55062.435</v>
@@ -4095,15 +4317,15 @@
         <v>-177</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>345.21</v>
@@ -4112,15 +4334,15 @@
         <v>-2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
         <v>321.18</v>
@@ -4129,15 +4351,15 @@
         <v>-2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1">
         <v>361.21</v>
@@ -4146,15 +4368,15 @@
         <v>-2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1">
         <v>322.17</v>
@@ -4163,7 +4385,7 @@
         <v>-2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4205,266 +4427,266 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4504,323 +4726,323 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>100000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4861,25 +5083,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="252">
   <si>
     <t>Id</t>
   </si>
@@ -846,6 +846,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -912,6 +915,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -925,9 +931,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -938,10 +941,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -975,16 +978,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,6 +1007,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1006,10 +1028,63 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1028,47 +1103,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,47 +1118,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1138,7 +1141,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1237,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,31 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,127 +1315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,20 +1335,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,174 +1409,162 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3330,14 +3333,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3348,7 +3351,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3381,6 +3384,9 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3509,46 +3515,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -3593,31 +3599,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
@@ -3635,14 +3641,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3650,7 +3656,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3661,43 +3667,46 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>250</v>
+        <v>222</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="7" activeTab="18"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="268">
   <si>
     <t>Table</t>
   </si>
@@ -290,7 +290,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>Comments</t>
@@ -960,9 +960,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>ORCID</t>
   </si>
   <si>
     <t>Target</t>
@@ -994,10 +991,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1051,12 +1048,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1066,8 +1060,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,73 +1122,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,9 +1137,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,10 +1160,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,7 +1210,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,175 +1384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,21 +1401,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1440,37 +1422,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,153 +1467,173 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5605,12 +5602,12 @@
   <sheetPr/>
   <dimension ref="A1:AMS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6022,14 +6019,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -6037,7 +6034,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -6069,12 +6066,9 @@
         <v>259</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6113,25 +6107,25 @@
         <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>36</v>
@@ -6152,7 +6146,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$S$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$1:$L$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$C$1:$L$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$D$1</definedName>
@@ -77,14 +77,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$Q$4</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$Q$4</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$Q$4</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$Q$4</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$Q$4</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$Q$4</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$Q$4</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$Q$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$S$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$S$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$S$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$S$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$S$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$S$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$S$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$S$4</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="272">
   <si>
     <t>Table</t>
   </si>
@@ -317,49 +317,295 @@
     <t>degC</t>
   </si>
   <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>Transcription</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>degradation</t>
+  </si>
+  <si>
+    <t>Degradation</t>
+  </si>
+  <si>
+    <t>Initial volume</t>
+  </si>
+  <si>
     <t>pH</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Volume distribution</t>
+  </si>
+  <si>
+    <t>Volume mean</t>
+  </si>
+  <si>
+    <t>Volume standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
     <t>pH units</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>transcription</t>
-  </si>
-  <si>
-    <t>Transcription</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>degradation</t>
-  </si>
-  <si>
-    <t>Degradation</t>
-  </si>
-  <si>
-    <t>Initial volume</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular_compartment</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>HO7P2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>C10H12N5O13P3</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>C9H12N3O14P3</t>
+  </si>
+  <si>
+    <t>GTP</t>
+  </si>
+  <si>
+    <t>C10H12N5O14P3</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>C9H11N2O15P3</t>
+  </si>
+  <si>
+    <t>RNA_1</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAACCCCCCCCCCGGGGGGGGUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C476H537N188O347P50</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>RNA_2</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCCCCGGGUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C444H514N127O370P49</t>
+  </si>
+  <si>
+    <t>RNA_3</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1012H1151N366O759P108</t>
+  </si>
+  <si>
+    <t>RNA_4</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1110H1271N370O866P120</t>
+  </si>
+  <si>
+    <t>RNA_5</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
+  </si>
+  <si>
+    <t>C1640H1867N570O1253P176</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>C10H12N5O7P</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>C9H12N3O8P</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>C10H12N5O8P</t>
+  </si>
+  <si>
+    <t>UMP</t>
+  </si>
+  <si>
+    <t>C9H11N2O9P</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>H[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>PPI[c]</t>
+  </si>
+  <si>
+    <t>H2O[c]</t>
+  </si>
+  <si>
+    <t>H2O[e]</t>
+  </si>
+  <si>
+    <t>ATP[c]</t>
+  </si>
+  <si>
+    <t>CTP[c]</t>
+  </si>
+  <si>
+    <t>GTP[c]</t>
+  </si>
+  <si>
+    <t>UTP[c]</t>
+  </si>
+  <si>
+    <t>RNA_1[c]</t>
+  </si>
+  <si>
+    <t>RNA_2[c]</t>
+  </si>
+  <si>
+    <t>RNA_3[c]</t>
+  </si>
+  <si>
+    <t>RNA_4[c]</t>
+  </si>
+  <si>
+    <t>RNA_5[c]</t>
+  </si>
+  <si>
+    <t>AMP[c]</t>
+  </si>
+  <si>
+    <t>CMP[c]</t>
+  </si>
+  <si>
+    <t>GMP[c]</t>
+  </si>
+  <si>
+    <t>UMP[c]</t>
   </si>
   <si>
     <t>Distribution</t>
@@ -369,240 +615,6 @@
   </si>
   <si>
     <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular_compartment</t>
-  </si>
-  <si>
-    <t>density_e</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>PPI</t>
-  </si>
-  <si>
-    <t>HO7P2</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>C10H12N5O13P3</t>
-  </si>
-  <si>
-    <t>CTP</t>
-  </si>
-  <si>
-    <t>C9H12N3O14P3</t>
-  </si>
-  <si>
-    <t>GTP</t>
-  </si>
-  <si>
-    <t>C10H12N5O14P3</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>C9H11N2O15P3</t>
-  </si>
-  <si>
-    <t>RNA_1</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAACCCCCCCCCCGGGGGGGGUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C476H537N188O347P50</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>RNA_2</t>
-  </si>
-  <si>
-    <t>CCCCCCCCCCCCCCCCCCCCGGGUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C444H514N127O370P49</t>
-  </si>
-  <si>
-    <t>RNA_3</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1012H1151N366O759P108</t>
-  </si>
-  <si>
-    <t>RNA_4</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1110H1271N370O866P120</t>
-  </si>
-  <si>
-    <t>RNA_5</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCGGGGGGUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUUU</t>
-  </si>
-  <si>
-    <t>C1640H1867N570O1253P176</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>C10H12N5O7P</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>C9H12N3O8P</t>
-  </si>
-  <si>
-    <t>GMP</t>
-  </si>
-  <si>
-    <t>C10H12N5O8P</t>
-  </si>
-  <si>
-    <t>UMP</t>
-  </si>
-  <si>
-    <t>C9H11N2O9P</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>H[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>PPI[c]</t>
-  </si>
-  <si>
-    <t>H2O[c]</t>
-  </si>
-  <si>
-    <t>H2O[e]</t>
-  </si>
-  <si>
-    <t>ATP[c]</t>
-  </si>
-  <si>
-    <t>CTP[c]</t>
-  </si>
-  <si>
-    <t>GTP[c]</t>
-  </si>
-  <si>
-    <t>UTP[c]</t>
-  </si>
-  <si>
-    <t>RNA_1[c]</t>
-  </si>
-  <si>
-    <t>RNA_2[c]</t>
-  </si>
-  <si>
-    <t>RNA_3[c]</t>
-  </si>
-  <si>
-    <t>RNA_4[c]</t>
-  </si>
-  <si>
-    <t>RNA_5[c]</t>
-  </si>
-  <si>
-    <t>AMP[c]</t>
-  </si>
-  <si>
-    <t>CMP[c]</t>
-  </si>
-  <si>
-    <t>GMP[c]</t>
-  </si>
-  <si>
-    <t>UMP[c]</t>
   </si>
   <si>
     <t>dist-init-conc-H[c]</t>
@@ -991,10 +1003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1053,6 +1065,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1060,16 +1095,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,39 +1111,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,16 +1142,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1160,32 +1194,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1210,31 +1222,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,7 +1270,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,19 +1300,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,67 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,25 +1402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,16 +1420,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,6 +1452,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1452,37 +1481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,139 +1504,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1842,6 +1854,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Table of contents"/>
       <sheetName val="Model"/>
       <sheetName val="Taxon"/>
       <sheetName val="Environment"/>
@@ -1888,6 +1901,7 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2436,10 +2450,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>36</v>
@@ -2495,10 +2509,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
@@ -2518,24 +2532,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2596,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -3613,25 +3627,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>36</v>
@@ -4664,172 +4678,172 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4878,19 +4892,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>36</v>
@@ -4910,172 +4924,172 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5108,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E1" s="10"/>
     </row>
@@ -5120,19 +5134,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
@@ -5189,13 +5203,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>36</v>
@@ -5249,16 +5263,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>36</v>
@@ -5322,13 +5336,13 @@
         <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -5348,164 +5362,164 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D8" s="1">
         <v>0.035</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1">
         <v>1100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5516,18 +5530,18 @@
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D15" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5566,10 +5580,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
@@ -5617,7 +5631,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="7:1033">
       <c r="G1" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
@@ -5645,13 +5659,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>82</v>
@@ -5660,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>42</v>
@@ -5669,28 +5683,28 @@
         <v>43</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>36</v>
@@ -5860,19 +5874,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>36</v>
@@ -5958,46 +5972,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>36</v>
@@ -6021,7 +6035,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -6042,28 +6056,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>36</v>
@@ -6107,25 +6121,25 @@
         <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>36</v>
@@ -6146,7 +6160,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6216,15 +6230,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="B5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -6262,34 +6276,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.75</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6326,7 +6324,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>36</v>
@@ -6346,24 +6344,24 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6381,20 +6379,20 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1031" width="8.78333333333333" style="1"/>
+    <col min="1" max="1033" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:1031">
+    <row r="1" ht="15" customHeight="1" spans="1:1033">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -6403,14 +6401,16 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="M1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="10"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -7425,9 +7425,11 @@
       <c r="AML1" s="11"/>
       <c r="AMM1" s="11"/>
       <c r="AMN1" s="11"/>
-      <c r="AMO1"/>
-      <c r="AMP1"/>
+      <c r="AMO1" s="11"/>
+      <c r="AMP1" s="11"/>
       <c r="AMQ1"/>
+      <c r="AMR1"/>
+      <c r="AMS1"/>
     </row>
     <row r="2" s="6" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
       <c r="A2" s="15" t="s">
@@ -7437,52 +7439,56 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
@@ -8492,8 +8498,8 @@
       <c r="AML2" s="11"/>
       <c r="AMM2" s="11"/>
       <c r="AMN2" s="11"/>
-      <c r="AMO2"/>
-      <c r="AMP2"/>
+      <c r="AMO2" s="11"/>
+      <c r="AMP2" s="11"/>
       <c r="AMQ2"/>
       <c r="AMR2"/>
       <c r="AMS2"/>
@@ -23849,30 +23855,30 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:12">
+    <row r="3" ht="15.1" customHeight="1" spans="1:14">
       <c r="A3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I3" s="8">
         <v>4.6e-17</v>
@@ -23881,15 +23887,21 @@
         <v>4.6e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" ht="15.1" customHeight="1" spans="1:12">
+    <row r="4" ht="15.1" customHeight="1" spans="1:14">
       <c r="A4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>75</v>
@@ -23898,16 +23910,16 @@
         <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I4" s="8">
         <v>1e-12</v>
@@ -23916,18 +23928,25 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="M4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q4">
+  <autoFilter ref="A2:S4">
     <extLst/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -24345,7 +24364,7 @@
         <v>122</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>36</v>
@@ -24365,240 +24384,240 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -24641,16 +24660,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>36</v>
@@ -24670,291 +24689,291 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1">
         <v>100000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1">
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1">
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1">
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1">
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1">
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1">
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1">
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1">
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="5"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$U$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$1:$L$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$N$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$C$1:$L$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Functions!$A$1:$D$3</definedName>
@@ -85,14 +85,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$1:$L$15</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="272">
   <si>
     <t>Table</t>
   </si>
@@ -416,6 +416,15 @@
     <t>Structure</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
     <t>Empirical formula</t>
   </si>
   <si>
@@ -476,6 +485,12 @@
     <t>AAAAAAAAAAAAAAAAAACCCCCCCCCCGGGGGGGGUUUUUUUUUUUUUU</t>
   </si>
   <si>
+    <t>Bpforms</t>
+  </si>
+  <si>
+    <t>rna</t>
+  </si>
+  <si>
     <t>C476H537N188O347P50</t>
   </si>
   <si>
@@ -831,9 +846,6 @@
   </si>
   <si>
     <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Standard error</t>
@@ -991,9 +1003,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -1048,13 +1060,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1063,22 +1068,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,20 +1077,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1120,6 +1097,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1136,6 +1118,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1146,7 +1142,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,28 +1198,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1210,7 +1222,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,49 +1300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,13 +1330,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,37 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,55 +1390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,17 +1416,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,35 +1464,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,150 +1513,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1679,14 +1691,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2441,7 +2453,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>61</v>
@@ -2500,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -2523,10 +2535,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>71</v>
@@ -2534,10 +2546,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
@@ -2587,7 +2599,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -3618,22 +3630,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>61</v>
@@ -4669,172 +4681,172 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4883,16 +4895,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>61</v>
@@ -4915,172 +4927,172 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5119,19 +5131,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>36</v>
@@ -5185,13 +5197,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>36</v>
@@ -5245,13 +5257,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>61</v>
@@ -5315,13 +5327,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>61</v>
@@ -5344,153 +5356,153 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D8" s="1">
         <v>0.035</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5501,7 +5513,7 @@
         <v>1100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5512,18 +5524,18 @@
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D15" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5562,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -5613,7 +5625,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="7:1035">
       <c r="G1" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
@@ -5625,11 +5637,11 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="Q1" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="T1" s="5"/>
       <c r="AMN1" s="1"/>
@@ -5649,22 +5661,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>42</v>
@@ -5676,19 +5688,19 @@
         <v>52</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>27</v>
@@ -5866,7 +5878,7 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H1" s="5"/>
     </row>
@@ -5878,16 +5890,16 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>
@@ -5982,46 +5994,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>36</v>
@@ -6066,28 +6078,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>36</v>
@@ -6128,28 +6140,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>36</v>
@@ -6170,7 +6182,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6389,7 +6401,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -6410,19 +6422,19 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
@@ -7444,7 +7456,7 @@
       <c r="AMU1"/>
     </row>
     <row r="2" s="7" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -23872,7 +23884,7 @@
       <c r="XFD2"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:16">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -23922,7 +23934,7 @@
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:16">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -23985,372 +23997,421 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="1"/>
-    <col min="4" max="4" width="23.8083333333333" style="1"/>
-    <col min="5" max="13" width="8.78333333333333" style="1"/>
-    <col min="14" max="14" width="11.5" style="1"/>
-    <col min="15" max="1026" width="8.78333333333333" style="1"/>
-    <col min="1027" max="16384" width="9" style="14"/>
+    <col min="1" max="5" width="8.78333333333333" style="1"/>
+    <col min="6" max="6" width="23.8083333333333" style="1"/>
+    <col min="7" max="15" width="8.78333333333333" style="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="1028" width="8.78333333333333" style="1"/>
+    <col min="1029" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="3:8">
+      <c r="C1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1">
         <v>1.008</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>83</v>
+      <c r="I3" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="1">
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1">
         <v>174.95</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H4" s="1">
         <v>-3</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>83</v>
+      <c r="I4" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="8" t="s">
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18.015</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17.007</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="1">
-        <v>18.015</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="1">
-        <v>17.007</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>83</v>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="1">
+        <v>503.15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="1">
-        <v>503.15</v>
-      </c>
-      <c r="F6" s="1">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1">
+        <v>479.13</v>
+      </c>
+      <c r="H8" s="1">
         <v>-4</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>83</v>
+      <c r="I8" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="1">
-        <v>479.13</v>
-      </c>
-      <c r="F7" s="1">
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="1">
+        <v>519.15</v>
+      </c>
+      <c r="H9" s="1">
         <v>-4</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>83</v>
+      <c r="I9" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="1">
-        <v>519.15</v>
-      </c>
-      <c r="F8" s="1">
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1">
+        <v>480.11</v>
+      </c>
+      <c r="H10" s="1">
         <v>-4</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>83</v>
+      <c r="I10" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="1">
-        <v>480.11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-4</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>83</v>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15992.297</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="1">
-        <v>15992.297</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>99</v>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15067.314</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-50</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="1">
-        <v>15067.314</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-50</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>99</v>
+      <c r="F13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="1">
+        <v>33930.511</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-109</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="1">
+        <v>37368.167</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-121</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="1">
-        <v>33930.511</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-109</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="1">
-        <v>37368.167</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-121</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>99</v>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="1">
+        <v>55062.435</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-177</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="1">
-        <v>55062.435</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-177</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>99</v>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="1">
+        <v>345.21</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="1">
-        <v>345.21</v>
-      </c>
-      <c r="F15" s="1">
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="1">
+        <v>321.18</v>
+      </c>
+      <c r="H17" s="1">
         <v>-2</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>83</v>
+      <c r="I17" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="1">
-        <v>321.18</v>
-      </c>
-      <c r="F16" s="1">
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="1">
+        <v>361.21</v>
+      </c>
+      <c r="H18" s="1">
         <v>-2</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>83</v>
+      <c r="I18" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="1">
-        <v>361.21</v>
-      </c>
-      <c r="F17" s="1">
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="1">
+        <v>322.17</v>
+      </c>
+      <c r="H19" s="1">
         <v>-2</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="1">
-        <v>322.17</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>83</v>
+      <c r="I19" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L18">
+  <autoFilter ref="A2:N19">
     <extLst/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -24386,10 +24447,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>61</v>
@@ -24412,240 +24473,240 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -24717,10 +24778,10 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>70</v>
@@ -24729,15 +24790,15 @@
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>70</v>
@@ -24746,15 +24807,15 @@
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>70</v>
@@ -24763,15 +24824,15 @@
         <v>100000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>70</v>
@@ -24780,15 +24841,15 @@
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>70</v>
@@ -24797,15 +24858,15 @@
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>70</v>
@@ -24814,15 +24875,15 @@
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>70</v>
@@ -24831,15 +24892,15 @@
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>70</v>
@@ -24848,15 +24909,15 @@
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>70</v>
@@ -24865,15 +24926,15 @@
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>70</v>
@@ -24882,15 +24943,15 @@
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>70</v>
@@ -24899,15 +24960,15 @@
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>70</v>
@@ -24916,15 +24977,15 @@
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>70</v>
@@ -24933,15 +24994,15 @@
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>70</v>
@@ -24950,15 +25011,15 @@
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>70</v>
@@ -24967,15 +25028,15 @@
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>70</v>
@@ -24984,15 +25045,15 @@
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>70</v>
@@ -25001,7 +25062,7 @@
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -26,18 +26,19 @@
     <sheet name="dFBA objective species" sheetId="14" r:id="rId16"/>
     <sheet name="Parameters" sheetId="15" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId18"/>
-    <sheet name="Evidence" sheetId="17" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="20" r:id="rId20"/>
-    <sheet name="References" sheetId="18" r:id="rId21"/>
-    <sheet name="Authors" sheetId="21" r:id="rId22"/>
-    <sheet name="Changes" sheetId="22" r:id="rId23"/>
+    <sheet name="Observations" sheetId="17" r:id="rId19"/>
+    <sheet name="Observation sets" sheetId="24" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="20" r:id="rId21"/>
+    <sheet name="References" sheetId="18" r:id="rId22"/>
+    <sheet name="Authors" sheetId="21" r:id="rId23"/>
+    <sheet name="Changes" sheetId="22" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$3</definedName>
@@ -52,7 +53,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
@@ -165,14 +166,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
     <definedName name="Id">'[2]Rate laws'!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="274">
   <si>
     <t>Table</t>
   </si>
@@ -242,84 +243,90 @@
     <t>Stop conditions</t>
   </si>
   <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Observation sets</t>
+  </si>
+  <si>
+    <t>Conclusions</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>mycoplasma_pneumoniae</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>wc_lang version</t>
+  </si>
+  <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
     <t>Evidence</t>
   </si>
   <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>Changes</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>mycoplasma_pneumoniae</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Revision</t>
-  </si>
-  <si>
-    <t>wc_lang version</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Identifiers</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>transcription</t>
   </si>
   <si>
@@ -887,10 +894,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
+    <t>Data generation process</t>
+  </si>
+  <si>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -911,7 +918,10 @@
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Title</t>
@@ -993,9 +1003,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +1011,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -1060,12 +1067,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1075,8 +1079,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,19 +1134,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1110,11 +1141,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1142,45 +1187,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,11 +1200,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1222,7 +1229,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,25 +1379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,97 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,42 +1413,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1413,54 +1420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1481,11 +1440,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,145 +1488,171 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1875,8 +1882,9 @@
       <sheetName val="dFBA objective species"/>
       <sheetName val="Parameters"/>
       <sheetName val="Stop conditions"/>
-      <sheetName val="Evidence"/>
-      <sheetName val="Interpretations"/>
+      <sheetName val="Observations"/>
+      <sheetName val="Observation sets"/>
+      <sheetName val="Conclusions"/>
       <sheetName val="References"/>
       <sheetName val="Authors"/>
       <sheetName val="Changes"/>
@@ -1905,6 +1913,7 @@
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2168,12 +2177,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -2361,7 +2370,7 @@
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2370,7 +2379,7 @@
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -2379,7 +2388,7 @@
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2391,9 +2400,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:C23">
+  <autoFilter ref="A1:C24">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -2414,11 +2432,11 @@
     <hyperlink ref="A16" location="'dFBA objective species'!A1" display="dFBA objective species" tooltip="Click to view dfba objective species"/>
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
-    <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
-    <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
-    <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
-    <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A22" location="'References'!A1" display="References" tooltip="Click to view references"/>
+    <hyperlink ref="A23" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" display="Observations" tooltip="Click to view evidence"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2447,31 +2465,31 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2506,53 +2524,53 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2617,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -3624,46 +3642,46 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:1027">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -4681,172 +4699,172 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4889,210 +4907,210 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5125,40 +5143,40 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5191,34 +5209,34 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5251,37 +5269,37 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
       <c r="A1" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5321,221 +5339,221 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D8" s="1">
         <v>0.035</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D9" s="1">
         <v>0.035</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1">
         <v>0.035</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1">
         <v>1100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1">
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D15" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5568,31 +5586,31 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5608,24 +5626,24 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMU2"/>
+  <dimension ref="A1:AMT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1027" width="9.10833333333333" style="1"/>
+    <col min="1" max="1026" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="7:1035">
+    <row r="1" ht="15" customHeight="1" spans="7:1034">
       <c r="G1" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
@@ -5637,13 +5655,14 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="Q1" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T1" s="5"/>
+      <c r="AMM1" s="1"/>
       <c r="AMN1" s="1"/>
       <c r="AMO1" s="1"/>
       <c r="AMP1" s="1"/>
@@ -5651,81 +5670,78 @@
       <c r="AMR1" s="1"/>
       <c r="AMS1" s="1"/>
       <c r="AMT1" s="1"/>
-      <c r="AMU1" s="1"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:1035">
+    <row r="2" ht="15.1" customHeight="1" spans="1:1034">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="T2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="AMM2" s="1"/>
       <c r="AMN2" s="1"/>
       <c r="AMO2" s="1"/>
       <c r="AMP2" s="1"/>
@@ -5733,7 +5749,6 @@
       <c r="AMR2" s="1"/>
       <c r="AMS2" s="1"/>
       <c r="AMT2" s="1"/>
-      <c r="AMU2" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5771,78 +5786,78 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5858,14 +5873,72 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.3916666666667" style="1"/>
+    <col min="4" max="1017" width="9.10833333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5878,49 +5951,52 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
@@ -5968,7 +6044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -5988,58 +6064,58 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6052,7 +6128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L1"/>
@@ -6072,40 +6148,40 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6114,7 +6190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q1"/>
@@ -6134,55 +6210,55 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6211,32 +6287,32 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6271,20 +6347,20 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -6292,25 +6368,25 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6340,50 +6416,50 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6423,14 +6499,14 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="11"/>
       <c r="M1" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
@@ -7457,67 +7533,67 @@
     </row>
     <row r="2" s="7" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
       <c r="A2" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
@@ -23885,28 +23961,28 @@
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:16">
       <c r="A3" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" s="9">
         <v>4.6e-17</v>
@@ -23915,13 +23991,13 @@
         <v>4.6e-18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="N3" s="1">
         <v>7.75</v>
@@ -23930,30 +24006,30 @@
         <v>0.775</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:16">
       <c r="A4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" s="9">
         <v>1e-12</v>
@@ -23962,13 +24038,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N4" s="1">
         <v>7.75</v>
@@ -23977,7 +24053,7 @@
         <v>0.775</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -23999,7 +24075,7 @@
   <sheetPr/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -24019,7 +24095,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="3:8">
       <c r="C1" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -24029,54 +24105,54 @@
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1">
         <v>1.008</v>
@@ -24085,15 +24161,15 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1">
         <v>174.95</v>
@@ -24102,15 +24178,15 @@
         <v>-3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1">
         <v>18.015</v>
@@ -24119,15 +24195,15 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1">
         <v>17.007</v>
@@ -24136,15 +24212,15 @@
         <v>-1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1">
         <v>503.15</v>
@@ -24153,15 +24229,15 @@
         <v>-4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1">
         <v>479.13</v>
@@ -24170,15 +24246,15 @@
         <v>-4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1">
         <v>519.15</v>
@@ -24187,15 +24263,15 @@
         <v>-4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1">
         <v>480.11</v>
@@ -24204,24 +24280,24 @@
         <v>-4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G11" s="1">
         <v>15992.297</v>
@@ -24230,24 +24306,24 @@
         <v>-51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G12" s="1">
         <v>15067.314</v>
@@ -24256,24 +24332,24 @@
         <v>-50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1">
         <v>33930.511</v>
@@ -24282,24 +24358,24 @@
         <v>-109</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1">
         <v>37368.167</v>
@@ -24308,24 +24384,24 @@
         <v>-121</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G15" s="1">
         <v>55062.435</v>
@@ -24334,15 +24410,15 @@
         <v>-177</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G16" s="1">
         <v>345.21</v>
@@ -24351,15 +24427,15 @@
         <v>-2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G17" s="1">
         <v>321.18</v>
@@ -24368,15 +24444,15 @@
         <v>-2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1">
         <v>361.21</v>
@@ -24385,15 +24461,15 @@
         <v>-2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="1">
         <v>322.17</v>
@@ -24402,7 +24478,7 @@
         <v>-2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -24441,272 +24517,272 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -24740,329 +24816,329 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1">
         <v>100000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1">
         <v>5000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1">
         <v>20000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1">
         <v>20000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1">
         <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1">
         <v>20000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1">
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
         <v>1100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <externalReferences>
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
@@ -158,22 +158,22 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0">References!$A$1:$Q$1</definedName>
     <definedName name="Id">'[2]Rate laws'!$A:$A</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!Taxon'!$A$1:$A$6</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!Submodels'!$A$1:$H$3</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$U$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$N$19</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!Initial species concentrations'!$C$1:$L$18</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!Observables'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!Functions'!$A$1:$D$3</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$J$12</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!Rate laws'!$C$1:$L$11</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$F$15</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!Stop conditions'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$Q$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!!Taxon'!$A$1:$A$6</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$3</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$19</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Initial species concentrations'!$C$1:$L$18</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$D$3</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$J$12</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$C$1:$L$11</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$15</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -796,14 +796,14 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,7 +813,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="7" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,7 +1276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1293,42 +1293,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="20" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="20" t="inlineStr">
+      <c r="C3" s="20" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="21" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="21" t="n"/>
-      <c r="C3" s="21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="21" t="n"/>
@@ -1339,7 +1335,7 @@
     <row r="5">
       <c r="A5" s="21" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="21" t="n"/>
@@ -1350,220 +1346,231 @@
     <row r="6">
       <c r="A6" s="21" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="21" t="n"/>
       <c r="C6" s="21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="21" t="n"/>
       <c r="C7" s="21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="21" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="21" t="n"/>
+      <c r="C26" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1623,7 +1630,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1714,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1838,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4242,7 +4249,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4616,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4720,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4807,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4906,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5258,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5340,7 @@
     <row customHeight="1" ht="15" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5543,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5688,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5772,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5928,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6055,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6150,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6270,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6349,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6438,7 +6445,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -6549,7 +6556,7 @@
     <row customHeight="1" ht="15" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8890,7 +8897,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9483,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9945,7 +9952,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -15,7 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
@@ -164,7 +164,7 @@
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$3</definedName>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$4</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$19</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Initial species concentrations'!$C$1:$L$18</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$C$1:$L$18</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$D$1</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$D$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$J$12</definedName>

--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -37,143 +37,143 @@
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
   </externalReferences>
   <definedNames>
-    <definedName localSheetId="1" name="_FilterDatabase_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0">Taxon!$A$1:$A$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0">Taxon!$A$1:$A$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0">Taxon!$A$1:$A$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0">Taxon!$A$1:$A$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0">Taxon!$A$1:$A$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0">Taxon!$A$1:$A$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0">Taxon!$A$1:$A$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0">Taxon!$A$1:$A$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0">Submodels!$A$1:$H$2</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0">Submodels!$A$1:$H$2</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0">Submodels!$A$1:$H$2</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0">Submodels!$A$1:$H$2</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0">Submodels!$A$1:$H$2</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0">Submodels!$A$1:$H$2</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0">Submodels!$A$1:$H$2</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$2</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0">'Species types'!$A$2:$N$16</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0">'Species types'!$A$2:$N$16</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0">'Species types'!$A$2:$N$16</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0">'Species types'!$A$2:$N$16</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0">'Species types'!$A$2:$N$16</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0">'Species types'!$A$2:$N$16</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0">'Species types'!$A$2:$N$16</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$16</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$18</definedName>
-    <definedName localSheetId="9" name="_FilterDatabase_0">Observables!$A$1:$D$1</definedName>
-    <definedName localSheetId="9" name="_FilterDatabase_0_0">Observables!$A$1:$D$1</definedName>
-    <definedName localSheetId="9" name="_FilterDatabase_0_0_0">Observables!$A$1:$D$1</definedName>
-    <definedName localSheetId="9" name="_FilterDatabase_0_0_0_0">Observables!$A$1:$D$1</definedName>
-    <definedName localSheetId="9" name="_FilterDatabase_0_0_0_0_0">Observables!$A$1:$D$1</definedName>
-    <definedName localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0">Observables!$A$1:$D$1</definedName>
-    <definedName localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0">Observables!$A$1:$D$1</definedName>
-    <definedName localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0_0">Observables!$A$1:$D$1</definedName>
-    <definedName localSheetId="10" name="_FilterDatabase_0">Functions!$A$1:$D$1</definedName>
-    <definedName localSheetId="10" name="_FilterDatabase_0_0">Functions!$A$1:$D$1</definedName>
-    <definedName localSheetId="10" name="_FilterDatabase_0_0_0">Functions!$A$1:$D$1</definedName>
-    <definedName localSheetId="10" name="_FilterDatabase_0_0_0_0">Functions!$A$1:$D$1</definedName>
-    <definedName localSheetId="10" name="_FilterDatabase_0_0_0_0_0">Functions!$A$1:$D$1</definedName>
-    <definedName localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0">Functions!$A$1:$D$1</definedName>
-    <definedName localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0_0">Functions!$A$1:$D$1</definedName>
-    <definedName localSheetId="10" name="_FilterDatabase_0_0_0_0_0_0_0_0">Functions!$A$1:$D$1</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0">Reactions!$A$2:$J$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0">Reactions!$A$2:$J$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0">Reactions!$A$2:$J$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0">Reactions!$A$2:$J$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0">Reactions!$A$2:$J$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0">Reactions!$A$2:$J$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0">Reactions!$A$2:$J$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0">Reactions!$A$2:$J$7</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0">'Rate laws'!$C$1:$L$6</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0">'Rate laws'!$C$1:$L$6</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0">'Rate laws'!$C$1:$L$6</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0">'Rate laws'!$C$1:$L$6</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0">'Rate laws'!$C$1:$L$6</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0">'Rate laws'!$C$1:$L$6</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$6</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$6</definedName>
-    <definedName localSheetId="14" name="_FilterDatabase_0">'dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName localSheetId="14" name="_FilterDatabase_0_0">'dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName localSheetId="14" name="_FilterDatabase_0_0_0">'dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName localSheetId="14" name="_FilterDatabase_0_0_0_0">'dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName localSheetId="14" name="_FilterDatabase_0_0_0_0_0">'dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0">'dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0">'dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName localSheetId="14" name="_FilterDatabase_0_0_0_0_0_0_0_0">'dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName localSheetId="15" name="_FilterDatabase_0">'dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName localSheetId="15" name="_FilterDatabase_0_0">'dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName localSheetId="15" name="_FilterDatabase_0_0_0">'dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName localSheetId="15" name="_FilterDatabase_0_0_0_0">'dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName localSheetId="15" name="_FilterDatabase_0_0_0_0_0">'dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0">'dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0_0">'dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName localSheetId="15" name="_FilterDatabase_0_0_0_0_0_0_0_0">'dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0">Parameters!$A$1:$F$2</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0">Parameters!$A$1:$F$2</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0">Parameters!$A$1:$F$2</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0">Parameters!$A$1:$F$2</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0">Parameters!$A$1:$F$2</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0">Parameters!$A$1:$F$2</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0">Parameters!$A$1:$F$2</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0">Parameters!$A$1:$F$2</definedName>
-    <definedName localSheetId="17" name="_FilterDatabase_0">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName localSheetId="17" name="_FilterDatabase_0_0">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName localSheetId="17" name="_FilterDatabase_0_0_0">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName localSheetId="17" name="_FilterDatabase_0_0_0_0">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName localSheetId="17" name="_FilterDatabase_0_0_0_0_0">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName localSheetId="17" name="_FilterDatabase_0_0_0_0_0_0">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName localSheetId="17" name="_FilterDatabase_0_0_0_0_0_0_0">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName localSheetId="17" name="_FilterDatabase_0_0_0_0_0_0_0_0">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0">References!$A$1:$Q$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$Q$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="2">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="2">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$16</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$18</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="9">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="10">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="10">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$J$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$J$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$J$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">Reactions!$A$2:$J$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$J$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$J$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$J$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$J$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="12">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="12">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="14">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="15">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
     <definedName name="Id">'[2]Rate laws'!$A:$A</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!!Taxon'!$A$1:$A$6</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$3</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$19</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$C$1:$L$18</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$D$3</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$J$12</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$C$1:$L$11</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$15</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Model'!$A$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Taxon'!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$2:$U$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$2:$N$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!Init species concentrations'!$C$1:$L$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Observables'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Functions'!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$2:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!Rate laws'!$C$1:$L$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$1:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -182,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -691,255 +691,255 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="11" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164"/>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -950,7 +950,7 @@
       <sheetName val="#REF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1279,28 +1279,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A19" pane="bottomLeft" sqref="A19:A21"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="19" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" style="19" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="19" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" style="19" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Schema' objTablesVersion='0.0.8' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1577,30 +1577,30 @@
   </sheetData>
   <autoFilter ref="A1:C24"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A2" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A3" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A4" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A5" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A6" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A7" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A8" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A9" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A10" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A11" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A12" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A13" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A14" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A15" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A16" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A17" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A18" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Evidence'!A1" ref="A19" tooltip="Click to view evidence"/>
-    <hyperlink display="Conclusions" location="'Interpretations'!A1" ref="A21" tooltip="Click to view interpretations"/>
-    <hyperlink display="References" location="'References'!A1" ref="A22" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A23" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A24" tooltip="Click to view changes"/>
+    <hyperlink ref="A2" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A3" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A4" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A5" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A6" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A7" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A8" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A9" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A10" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A11" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A12" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A13" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A14" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A15" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A16" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A17" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A18" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" tooltip="Click to view evidence" display="Observations"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" tooltip="Click to view interpretations" display="Conclusions"/>
+    <hyperlink ref="A22" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A23" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1613,24 +1613,24 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="8" min="8" style="13" width="8.625"/>
-    <col customWidth="1" max="1026" min="9" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="7"/>
+    <col width="8.625" customWidth="1" style="13" min="8" max="8"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="9" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1683,8 +1683,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1697,24 +1697,24 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="13" width="11"/>
-    <col customWidth="1" max="1026" min="4" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="2"/>
+    <col width="11" customWidth="1" style="13" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="4" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1801,8 +1801,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D3"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1815,34 +1815,34 @@
   <dimension ref="A1:AMM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G2" pane="bottomRight" sqref="G2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="19.175"/>
-    <col customWidth="1" max="2" min="2" style="13" width="8.45833333333333"/>
-    <col customWidth="1" max="3" min="3" style="13" width="12.8583333333333"/>
-    <col customWidth="1" max="4" min="4" style="13" width="69.875"/>
-    <col customWidth="1" max="6" min="5" style="13" width="13.3916666666667"/>
-    <col customWidth="1" max="7" min="7" style="13" width="10.7166666666667"/>
-    <col customWidth="1" max="8" min="8" style="13" width="10.8166666666667"/>
-    <col customWidth="1" max="10" min="9" style="13" width="13.3916666666667"/>
-    <col customWidth="1" max="1027" min="11" style="13" width="8.78333333333333"/>
+    <col width="19.175" customWidth="1" style="13" min="1" max="1"/>
+    <col width="8.45833333333333" customWidth="1" style="13" min="2" max="2"/>
+    <col width="12.8583333333333" customWidth="1" style="13" min="3" max="3"/>
+    <col width="69.875" customWidth="1" style="13" min="4" max="4"/>
+    <col width="13.3916666666667" customWidth="1" style="13" min="5" max="6"/>
+    <col width="10.7166666666667" customWidth="1" style="13" min="7" max="7"/>
+    <col width="10.8166666666667" customWidth="1" style="13" min="8" max="8"/>
+    <col width="13.3916666666667" customWidth="1" style="13" min="9" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="11" max="1027"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="11" t="n"/>
       <c r="B2" s="11" t="n"/>
       <c r="C2" s="11" t="n"/>
@@ -2873,7 +2873,7 @@
       <c r="AML2" s="11" t="n"/>
       <c r="AMM2" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="16" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -3958,7 +3958,7 @@
       <c r="AML3" s="11" t="n"/>
       <c r="AMM3" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="8" t="inlineStr">
         <is>
           <t>transcription_RNA_1</t>
@@ -3983,7 +3983,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="8" t="inlineStr">
         <is>
           <t>transcription_RNA_2</t>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="8" t="inlineStr">
         <is>
           <t>transcription_RNA_3</t>
@@ -4033,7 +4033,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="8" t="inlineStr">
         <is>
           <t>transcription_RNA_4</t>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="8" t="inlineStr">
         <is>
           <t>transcription_RNA_5</t>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="8" t="inlineStr">
         <is>
           <t>degradation_RNA_1</t>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="8" t="inlineStr">
         <is>
           <t>degradation_RNA_2</t>
@@ -4133,7 +4133,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="8" t="inlineStr">
         <is>
           <t>degradation_RNA_3</t>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="8" t="inlineStr">
         <is>
           <t>degradation_RNA_4</t>
@@ -4213,8 +4213,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4227,33 +4227,33 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E2" pane="bottomRight" sqref="E2:E11"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="24.375"/>
-    <col customWidth="1" max="2" min="2" style="13" width="5.625"/>
-    <col customWidth="1" max="3" min="3" style="13" width="17.625"/>
-    <col customWidth="1" max="4" min="4" style="13" width="8.625"/>
-    <col customWidth="1" max="5" min="5" style="13" width="4.875"/>
-    <col customWidth="1" max="6" min="6" style="13" width="20.875"/>
-    <col customWidth="1" max="12" min="7" style="13" width="13.3916666666667"/>
-    <col customWidth="1" max="1026" min="13" style="13" width="8.78333333333333"/>
+    <col width="24.375" customWidth="1" style="13" min="1" max="1"/>
+    <col width="5.625" customWidth="1" style="13" min="2" max="2"/>
+    <col width="17.625" customWidth="1" style="13" min="3" max="3"/>
+    <col width="8.625" customWidth="1" style="13" min="4" max="4"/>
+    <col width="4.875" customWidth="1" style="13" min="5" max="5"/>
+    <col width="20.875" customWidth="1" style="13" min="6" max="6"/>
+    <col width="13.3916666666667" customWidth="1" style="13" min="7" max="12"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="13" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="16" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
           <t>transcription_RNA_1-forward</t>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
           <t>transcription_RNA_2-forward</t>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
           <t>transcription_RNA_3-forward</t>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
           <t>transcription_RNA_4-forward</t>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
           <t>transcription_RNA_5-forward</t>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
           <t>degradation_RNA_1-forward</t>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
           <t>degradation_RNA_2-forward</t>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
           <t>degradation_RNA_3-forward</t>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
           <t>degradation_RNA_4-forward</t>
@@ -4587,8 +4587,8 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:L11"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4601,22 +4601,22 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1028" min="1" style="13" width="9.108333333333331"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="1" max="1028"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4683,8 +4683,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -4705,22 +4705,22 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4778,8 +4778,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4792,22 +4792,22 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="J1" pane="bottomRight" sqref="J$1:J$1048576"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4870,8 +4870,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4884,33 +4884,33 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C15" pane="bottomRight" sqref="C15"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="15.25"/>
-    <col customWidth="1" max="2" min="2" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="13" width="5.125"/>
-    <col customWidth="1" max="4" min="4" style="13" width="9.25"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="6" style="13" width="14.375"/>
-    <col customWidth="1" max="1026" min="7" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="7" width="9"/>
+    <col width="15.25" customWidth="1" style="13" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="2" max="2"/>
+    <col width="5.125" customWidth="1" style="13" min="3" max="3"/>
+    <col width="9.25" customWidth="1" style="13" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="5" max="5"/>
+    <col width="14.375" customWidth="1" style="13" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="7" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="16" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="8" t="inlineStr">
         <is>
           <t>mean_doubling_time</t>
@@ -4982,7 +4982,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
           <t>k_cat_trn_1</t>
@@ -5002,7 +5002,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
           <t>k_cat_trn_2</t>
@@ -5022,7 +5022,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
           <t>k_cat_trn_3</t>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
           <t>k_cat_trn_4</t>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
           <t>k_cat_trn_5</t>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
           <t>k_cat_deg_1</t>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
           <t>k_cat_deg_2</t>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
           <t>k_cat_deg_3</t>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
           <t>k_cat_deg_4</t>
@@ -5229,8 +5229,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F15"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5243,22 +5243,22 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="J8" pane="bottomRight" sqref="J8"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5311,8 +5311,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5325,26 +5325,26 @@
   <dimension ref="A1:AMT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="V1" pane="bottomRight" sqref="V$1:V$1048576"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="13" width="9.108333333333331"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="1" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="6" t="inlineStr">
         <is>
           <t>!Genotype</t>
@@ -5506,8 +5506,8 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -5528,26 +5528,26 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A8" pane="bottomRight" sqref="$A8:$XFD10"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -5559,7 +5559,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>!Name</t>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B3" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>!Version</t>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>!URL</t>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B5" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>!Branch</t>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B6" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>!Revision</t>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B7" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>!wc_lang version</t>
@@ -5615,7 +5615,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="16" t="inlineStr">
         <is>
           <t>!Time units</t>
@@ -5627,21 +5627,21 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="16" t="inlineStr">
         <is>
           <t>!Identifiers</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="16" t="inlineStr">
         <is>
           <t>!Comments</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="16" t="inlineStr">
         <is>
           <t>!Created</t>
@@ -5657,8 +5657,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B12"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5671,28 +5671,28 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="14"/>
-    <col customWidth="1" max="3" min="2" style="13" width="13.3916666666667"/>
-    <col customWidth="1" max="1017" min="4" style="13" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="13" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="13" min="2" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="4" max="1017"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3"/>
-    <row customHeight="1" ht="15.1" r="4"/>
-    <row customHeight="1" ht="15.1" r="5"/>
-    <row customHeight="1" ht="15.1" r="6"/>
-    <row customHeight="1" ht="15.1" r="7"/>
-    <row customHeight="1" ht="15.1" r="8"/>
-    <row customHeight="1" ht="15.1" r="9"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -5754,36 +5754,36 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="N2" pane="bottomRight" sqref="N2:N3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="15.125"/>
-    <col customWidth="1" max="2" min="2" style="13" width="14.75"/>
-    <col customWidth="1" max="1023" min="3" style="13" width="9.108333333333331"/>
-    <col customWidth="1" max="1024" min="1024" width="9.108333333333331"/>
+    <col width="15.125" customWidth="1" style="13" min="1" max="1"/>
+    <col width="14.75" customWidth="1" style="13" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="3" max="1023"/>
+    <col width="9.108333333333331" customWidth="1" min="1024" max="1024"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="5" t="inlineStr">
         <is>
           <t>!Process</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -5855,31 +5855,31 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="C7" s="4" t="n"/>
       <c r="D7" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="C8" s="4" t="n"/>
       <c r="D8" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="C9" s="4" t="n"/>
       <c r="D9" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="C10" s="4" t="n"/>
       <c r="D10" s="4" t="n"/>
     </row>
@@ -5891,8 +5891,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -5913,22 +5913,22 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C10" pane="bottomRight" sqref="C10"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6026,8 +6026,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6040,22 +6040,22 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="K18" pane="bottomRight" sqref="K18"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="13" width="9"/>
+    <col width="9" customWidth="1" style="13" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6135,22 +6135,22 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E1" pane="bottomRight" sqref="E1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="13" width="9"/>
+    <col width="9" customWidth="1" style="13" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6255,54 +6255,54 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="B5" pane="bottomRight" sqref="B5"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>!Id</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>!Name</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>!Rank</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>!Identifiers</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>!Comments</t>
@@ -6318,8 +6318,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A6"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6332,24 +6332,24 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B5" pane="topRight" sqref="$A5:$XFD6"/>
+      <selection pane="topRight" activeCell="B5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="18.5"/>
-    <col customWidth="1" max="2" min="2" style="13" width="5.375"/>
-    <col customWidth="1" max="1018" min="3" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="1019" min="1019" style="18" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1020" style="18" width="9"/>
+    <col width="18.5" customWidth="1" style="13" min="1" max="1"/>
+    <col width="5.375" customWidth="1" style="13" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="3" max="1018"/>
+    <col width="8.78333333333333" customWidth="1" style="18" min="1019" max="1019"/>
+    <col width="9" customWidth="1" style="18" min="1020" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6429,27 +6429,27 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C1" pane="bottomRight" sqref="C1:C2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1019" min="1" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1020" style="7" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="1019"/>
+    <col width="8.78333333333333" customWidth="1" style="7" min="1020" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="8" t="inlineStr">
         <is>
           <t>transcription</t>
@@ -6527,8 +6527,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H3"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6541,26 +6541,26 @@
   <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="M1" pane="bottomRight" sqref="M1:P4"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1035" min="1" style="13" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="1035"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.1" r="2" s="7">
+          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customFormat="1" customHeight="1" s="7">
       <c r="A2" s="11" t="n"/>
       <c r="B2" s="11" t="n"/>
       <c r="C2" s="11" t="n"/>
@@ -7596,7 +7596,7 @@
       <c r="AMQ2" s="11" t="n"/>
       <c r="AMR2" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="16" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -8714,7 +8714,7 @@
       <c r="AMQ3" s="11" t="n"/>
       <c r="AMR3" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="17" t="inlineStr">
         <is>
           <t>c</t>
@@ -8863,8 +8863,8 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -8877,27 +8877,27 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F11" pane="bottomRight" sqref="F11"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="6" style="13" width="23.8083333333333"/>
-    <col customWidth="1" max="15" min="7" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="16" min="16" style="13" width="11.5"/>
-    <col customWidth="1" max="1028" min="17" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1029" style="14" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="1" max="5"/>
+    <col width="23.8083333333333" customWidth="1" style="13" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="7" max="15"/>
+    <col width="11.5" customWidth="1" style="13" min="16" max="16"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="17" max="1028"/>
+    <col width="9" customWidth="1" style="14" min="1029" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9451,8 +9451,8 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -9465,29 +9465,29 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="13" width="19.3916666666667"/>
-    <col customWidth="1" max="8" min="7" style="13" width="9.108333333333331"/>
-    <col customWidth="1" max="10" min="9" style="13" width="19.3916666666667"/>
-    <col customWidth="1" max="1026" min="11" style="13" width="9.108333333333331"/>
+    <col width="19.3916666666667" customWidth="1" style="13" min="1" max="6"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="7" max="8"/>
+    <col width="19.3916666666667" customWidth="1" style="13" min="9" max="10"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="11" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="16" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -9539,7 +9539,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
           <t>H[c]</t>
@@ -9561,7 +9561,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
           <t>PPI[c]</t>
@@ -9583,7 +9583,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
           <t>H2O[c]</t>
@@ -9605,7 +9605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
           <t>H2O[e]</t>
@@ -9627,7 +9627,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
           <t>ATP[c]</t>
@@ -9649,7 +9649,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
           <t>CTP[c]</t>
@@ -9671,7 +9671,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
           <t>GTP[c]</t>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
           <t>UTP[c]</t>
@@ -9715,7 +9715,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
           <t>RNA_1[c]</t>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
           <t>RNA_2[c]</t>
@@ -9759,7 +9759,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
         <is>
           <t>RNA_3[c]</t>
@@ -9781,7 +9781,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
           <t>RNA_4[c]</t>
@@ -9914,8 +9914,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -9936,27 +9936,27 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="D18" pane="bottomRight" sqref="D2:D18"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="19.625"/>
-    <col customWidth="1" max="1026" min="2" style="13" width="8.78333333333333"/>
+    <col width="19.625" customWidth="1" style="13" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="2" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -10018,7 +10018,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-H[c]</t>
@@ -10043,7 +10043,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-PPI[c]</t>
@@ -10068,7 +10068,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-H2O[c]</t>
@@ -10093,7 +10093,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-H2O[e]</t>
@@ -10118,7 +10118,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-AMP[c]</t>
@@ -10143,7 +10143,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-CMP[c]</t>
@@ -10168,7 +10168,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-GMP[c]</t>
@@ -10193,7 +10193,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-UMP[c]</t>
@@ -10218,7 +10218,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-ATP[c]</t>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-CTP[c]</t>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-GTP[c]</t>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-UTP[c]</t>
@@ -10318,7 +10318,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-RNA_1[c]</t>
@@ -10343,7 +10343,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-RNA_2[c]</t>
@@ -10368,7 +10368,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-RNA_3[c]</t>
@@ -10393,7 +10393,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="13" t="inlineStr">
         <is>
           <t>dist-init-conc-RNA_4[c]</t>
@@ -10445,7 +10445,7 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:L18"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/min_model.xlsx
+++ b/tests/fixtures/min_model.xlsx
@@ -1630,7 +1630,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5340,7 +5340,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5928,7 +5928,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8897,7 +8897,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9952,7 +9952,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
